--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8333AE-332F-49F4-A388-F22A0EE2F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BC692-FE07-4E18-9141-FEF3D839F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="-20895" windowWidth="20745" windowHeight="20145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14310" yWindow="-19215" windowWidth="20745" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="456">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -4960,17 +4960,2029 @@
   <si>
     <t>01 28 15</t>
   </si>
+  <si>
+    <t>Урок 5 часть 2</t>
+  </si>
+  <si>
+    <t>Routing</t>
+  </si>
+  <si>
+    <t>00 16 00</t>
+  </si>
+  <si>
+    <t>Урок 5 часть 1</t>
+  </si>
+  <si>
+    <t>00 31 44</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Объект браузера, содержащий данные о текущей вебстранице</t>
+  </si>
+  <si>
+    <t>Объект браузера, содержащий историю переходов по веб-страницам</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>00 35 52</t>
+  </si>
+  <si>
+    <t>`https://developer.mozilla.org/ru/docs/Web/API/Window/hashchange_event</t>
+  </si>
+  <si>
+    <t>hashchange</t>
+  </si>
+  <si>
+    <t>Событие браузера, которое отвечает за обновление страницы, если у страницы был изменен ее hash
+  mounted(){
+    this.setPage();
+    window.addEventListener('hashchange', () =&gt; {
+      this.setPage();
+    });
+  }</t>
+  </si>
+  <si>
+    <t>`https://developer.mozilla.org/en-US/docs/Web/API/History/pushState</t>
+  </si>
+  <si>
+    <t>00 44 35</t>
+  </si>
+  <si>
+    <t>History: pushState() method</t>
+  </si>
+  <si>
+    <t>Метод браузера, который добавляет переход по странице в историю браузера  с тремя параметрами:
+1 объект с состоянием приложения
+2 title обычно пустой (заголовок страницы
+3 ссылка, по которой был совершен переход</t>
+  </si>
+  <si>
+    <t>`https://developer.mozilla.org/ru/docs/Web/API/Window/popstate_event</t>
+  </si>
+  <si>
+    <t>00 47 27</t>
+  </si>
+  <si>
+    <t>Событие браузера, которое отвечает за обновление страницы. Событие popstate вызывается, когда изменяется активная запись истории (то есть, когда осуществляются перезоды назад/вперед кнопками истории браузера)
+  mounted() {
+    const links = document.querySelectorAll('a');
+    links.forEach(link =&gt; {
+      link.addEventListener('click', event =&gt; {
+        event.preventDefault();
+        history.pushState({}, '', link.href);
+        this.setPage();
+      })
+    })
+    this.setPage();
+    window.addEventListener('popstate', () =&gt; {
+      this.setPage();
+    });
+  }</t>
+  </si>
+  <si>
+    <t>routing - Нативный подход</t>
+  </si>
+  <si>
+    <t>hash - Нативный подход</t>
+  </si>
+  <si>
+    <t>Урок 5 часть 3</t>
+  </si>
+  <si>
+    <t>routing - Vue Router</t>
+  </si>
+  <si>
+    <t>00 51 00</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>npm install vue-router@4</t>
+  </si>
+  <si>
+    <t>Установка</t>
+  </si>
+  <si>
+    <t>Версия библиотеки должна совпадать с версией vue</t>
+  </si>
+  <si>
+    <t>npm install vue-router@3</t>
+  </si>
+  <si>
+    <t>для vue2</t>
+  </si>
+  <si>
+    <t>для vue3</t>
+  </si>
+  <si>
+    <t>00 51 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;header&gt;
+        &lt;router-link to="/dashboard" &gt;Dashboard&lt;/router-link&gt; /
+        &lt;router-link to="/about" &gt;About&lt;/router-link&gt; /
+        &lt;router-link to="/notFound" &gt;NotFound&lt;/router-link&gt;
+      &lt;/header&gt;
+      &lt;main&gt;
+        &lt;router-view /&gt;
+      &lt;/main&gt;</t>
+  </si>
+  <si>
+    <t>router/index.js</t>
+  </si>
+  <si>
+    <t>App.js</t>
+  </si>
+  <si>
+    <t>1 &lt;router-link /&gt; - содержит ссылки на сами компоненты
+2 &lt;router-view /&gt; - позволяет отобразить сами компоненты</t>
+  </si>
+  <si>
+    <t>01:09:00</t>
+  </si>
+  <si>
+    <t>Программная навигация</t>
+  </si>
+  <si>
+    <t>Программная навигация во Vue — это способ изменения маршрута (URL) приложения без использования декларативных элементов, таких как &lt;router-link&gt;. 
+Вместо этого навигация выполняется программно, с помощью методов, предоставляемых Vue Router.</t>
+  </si>
+  <si>
+    <t>Замена текущего маршрута (без добавления в историю браузера).</t>
+  </si>
+  <si>
+    <t>Переход вперед/назад по истории (аналог window.history.go())</t>
+  </si>
+  <si>
+    <t>Переход на новый маршрут/URL (аналог &lt;router-link :to="..."&gt;).</t>
+  </si>
+  <si>
+    <t>// Без добавления в историю браузера
+this.$router.replace('/login');</t>
+  </si>
+  <si>
+    <t>// Назад (как history.back())
+this.$router.go(-1);
+// Вперед (как history.forward())
+this.$router.go(1);</t>
+  </si>
+  <si>
+    <t>Где это может пригодиться?</t>
+  </si>
+  <si>
+    <t>При клике на кнопку "Назад" (this.$router.go(-1)).</t>
+  </si>
+  <si>
+    <t>После отправки формы (this.$router.replace('/success')).</t>
+  </si>
+  <si>
+    <t>После авторизации (this.$router.push('/dashboard')).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// Переход по имени маршрута
+this.$router.push({ name: 'home' }); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//name является переменной, указанной в router/index.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+// Переход по пути
+this.$router.push('/home');
+// С параметрами
+this.$router.push({ path: '/user', query: { id: '123' } });
+this.$router.push({ name: 'user', params: { userId: '123' } });</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно при использовании программной навигации!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ошибка NavigationDuplicated: Avoided redundant navigation to current location возникает, когда вы пытаетесь программно перейти на тот же самый маршрут, на котором уже находитесь. Vue Router предотвращает избыточную навигацию, чтобы избежать бесконечных циклов.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Установка файлового пути через *.
+Позволяет переходить на любой ссылке, начинающейся с about в about</t>
+  </si>
+  <si>
+    <t>01 14 00</t>
+  </si>
+  <si>
+    <t>import Vue from 'vue'
+import VueRouter from 'vue-router'
+import Dashboard from '@/views/Dashboard.vue'
+import About from '@/views/About.vue'
+import NotFound from '@/views/NotFound.vue'
+Vue.use(VueRouter)
+const routes = [
+  {
+    path: '/dashboard',
+    name: 'dashboard',
+    component: Dashboard
+  },
+  {
+    path: '/about',
+    name: 'about',
+    component: About
+  },
+  {
+    path: '/notfound',
+    name: 'notfound',
+    component: NotFound
+  },
+  {
+    path: "*", //все пути, которые не соответствуют выше указанным, будут перенаправлены на notfound
+    component: NotFound //данный путь следует указывать в самом конце
+  }
+];
+const router = new VueRouter({
+  mode: 'history',
+  routes,
+})
+export default router</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {
+    path: "*", //все пути, которые не соответствуют выше указанным, будут перенаправлены на notfound
+    component: NotFound //данный путь следует указывать в самом конце
+  }</t>
+  </si>
+  <si>
+    <t>Установка файлового пути с использованием *.</t>
+  </si>
+  <si>
+    <t>Динамические пути</t>
+  </si>
+  <si>
+    <t>01 17 00</t>
+  </si>
+  <si>
+    <t>Компонент Dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  async created() {
+    await this.fetchDataStore();
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    if (this.$route.params?.page) {
+      this.page = this.$route.params?.page;
+    }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const routes = [
+  {
+    path: '/dashboard',
+    name: 'dashboard',
+    component: Dashboard
+  },
+  {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    path: '/dashboard/:page',</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    name: 'dashboard',
+    component: Dashboard
+  },</t>
+    </r>
+  </si>
+  <si>
+    <t>Использование родительских путей</t>
+  </si>
+  <si>
+    <t>const routes = [
+  {
+    path: '/dashboard',
+    name: 'dashboard',
+    component: Dashboard,
+    children: [
+      {
+        path: '/about',
+        name: 'about',
+        component: About
+      },
+    ]
+  },</t>
+  </si>
+  <si>
+    <t>01 22 00</t>
+  </si>
+  <si>
+    <t>Хуки</t>
+  </si>
+  <si>
+    <t>$router.push()</t>
+  </si>
+  <si>
+    <t>$router.replace()</t>
+  </si>
+  <si>
+    <t>$router.go()</t>
+  </si>
+  <si>
+    <t>$route.params</t>
+  </si>
+  <si>
+    <t>router.beforeEach((to,from,next)=&gt;{
+});</t>
+  </si>
+  <si>
+    <t>to - куда следует перейти
+from - откуда переход
+next - обязательная функция которая говорит о том, что если условие удовлетворяется, то вызови next. А next скажет, что заверши этот переход</t>
+  </si>
+  <si>
+    <t>Хук вызывается перед любым переходом
+const userAuth = true
+router.beforeEach((to, from, next) =&gt; {
+  if (to.name !== "notfound" &amp;&amp; !userAuth) {
+    next({
+      name: "notfound", //путь, по которому необходимо отправить пользователя, в случае отсутсвия авторизации
+    })
+  } else {
+    next() //next() без аргументов означает, что переход позволено осуществить по запрошенному пути
+  }
+});</t>
+  </si>
+  <si>
+    <t>next() – разрешает переход.
+next(false) – отменяет переход.
+next('/login') – перенаправляет на другой маршрут.
+next(new Error()) – вызывает ошибку (обрабатывается в router.onError).</t>
+  </si>
+  <si>
+    <t>import router from './router';
+import store from './store';
+router.beforeEach((to, from, next) =&gt; {
+  const isAuthenticated = store.getters.isAuthenticated;
+  if (to.meta.requiresAuth &amp;&amp; !isAuthenticated) {
+    next('/login'); // Перенаправление, если нужна авторизация
+  } else if (to.path === '/login' &amp;&amp; isAuthenticated) {
+    next('/dashboard'); // Уже авторизован — на главную
+  } else {
+    next(); // Разрешить переход
+  }
+});</t>
+  </si>
+  <si>
+    <t>Авторизация</t>
+  </si>
+  <si>
+    <t>01 28 00</t>
+  </si>
+  <si>
+    <t>Аналог
+let result;
+if (routeName === 'dashboard') {
+    result = 'Ура, у нас есть страница наших трат';
+} else if (routeName === 'about') {
+    result = 'Страница о сервисе';
+} else if (routeName === 'notfound') {
+    result = 'Страница не найдена';
+}</t>
+  </si>
+  <si>
+    <t>Компактный аналог конструкции switch-case или if-else
+const getTitleByRoutes = routeName =&gt; {
+  return {
+    dashboard: 'Ура, у нас есть страница наших трат',
+    about: 'Страница о сервисе',
+    notfound: 'Страница не найдена'
+  }[routeName]
+}</t>
+  </si>
+  <si>
+    <t>Переименование title страницы при переходе на route</t>
+  </si>
+  <si>
+    <r>
+      <t>const getTitleByRoutes = routeName =&gt; {
+  return</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> {</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    dashboard: 'Ура, у нас есть страница наших трат',
+    about: 'Страница о сервисе',
+    notfound: 'Страница не найдена'
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}[routeName]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+router.afterEach((to) =&gt; {
+  document.title = getTitleByRoutes(to.name)
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Такой подход часто используется для:
+1 Выбора значений по ключу (как в примере)
+2 Создания простых маршрутизаторов (роутеров)
+3 Реализации словарей или карт значений</t>
+  </si>
+  <si>
+    <t>Компактный аналог конструкции switch-case или if-else</t>
+  </si>
+  <si>
+    <t>Урок 6 часть 1</t>
+  </si>
+  <si>
+    <t>plugins</t>
+  </si>
+  <si>
+    <t>Модальные окна</t>
+  </si>
+  <si>
+    <t>Урок 6 часть 2</t>
+  </si>
+  <si>
+    <t>Плагины
+plugin</t>
+  </si>
+  <si>
+    <t>00 44 50</t>
+  </si>
+  <si>
+    <t>00 08 00</t>
+  </si>
+  <si>
+    <t>Плагины во Vue позволяют добавлять глобальные функции, директивы, компоненты и другие возможности в приложение. Они помогают расширять функционал Vue без необходимости дублирования кода в каждом компоненте.</t>
+  </si>
+  <si>
+    <t>Глобальное расширение Vue
+1 Добавление методов/свойств, доступных во всех компонентах (например, this.$api, this.$filters).
+2 Регистрация глобальных директив (v-tooltip, v-focus).
+3 Добавление глобальных компонентов (&lt;Toast&gt;, &lt;Modal&gt;).
+Интеграция сторонних библиотек
+1 Подключение Vue Router, Vuex, UI-библиотек (Vuetify, Element UI).
+2 Внедрение API (например, this.$axios для HTTP-запросов).
+Инкапсуляция логики
+1 Плагины могут скрывать сложную настройку (например, инициализацию Firebase, Google Maps).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Когда использовать плагины?</t>
+  </si>
+  <si>
+    <t>✅ Логика нужна глобально (например, утилиты, API).
+✅ Интеграция с внешними сервисами (Analytics, WebSockets).
+✅ Переиспользуемые UI-компоненты/директивы.
+❌ Локальная логика (лучше миксины или композаблы).
+❌ Простое расширение одного компонента (достаточно mixins).</t>
+  </si>
+  <si>
+    <t>1 Глобального расширения функционала (методы, компоненты, директивы).
+2 Интеграции сторонних библиотек.
+3 Инкапсуляции сложной логики.</t>
+  </si>
+  <si>
+    <r>
+      <t>export default {
+  install(Vue) { /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/проверка установки плагина в проекте, чтобы исключить повторную установку</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    if (this.installed) {
+      return;
+    }
+    this.installed = true; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//подтверждаем, что проект установлен</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    Vue.prototype.$modal = {
+      EventBus: new Vue(),
+      show(name, settings) {
+        this.EventBus.$emit("show", { name, settings }); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//name - название компонента, settings - объект с пропсами</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      },
+      hide() {
+        this.EventBus.$emit("hide");
+      },
+    };
+  },
+};</t>
+    </r>
+  </si>
+  <si>
+    <t>Плагин</t>
+  </si>
+  <si>
+    <t>Модальное окно</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;template&gt;
+    &lt;div class="wrapper"&gt;
+        &lt;div class="header"&gt;{{</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>settings.header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}&lt;/div&gt;
+        &lt;div class="content"&gt;
+            &lt;add-payment-form v-if="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>settings.content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === 'addPaymentForm'"/&gt;
+            &lt;AuthForm v-if="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>settings.content</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> === 'auth'" /&gt;
+        &lt;/div&gt;
+        &lt;div class="footer"&gt;
+            &lt;button @click="onClickClose"&gt;Close&lt;/button&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+&lt;/template&gt;
+&lt;script&gt;
+import AddPaymentForm from './AddPaymentForm.vue';
+import AuthForm from './AuthForm.vue';
+export default {
+    props:{
+        settings: Object
+    },
+    components: {
+        AddPaymentForm,
+        AuthForm,
+    },
+    methods: {
+        onClickClose() {
+            this.$emit('close');
+        }
+    }
+}
+&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  methods: {
+    onShow(data) { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//в data содержится то, что было передано из дочернего компонента</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      this.componentName = data.name;
+      this.settings = data.settings;
+    },
+    onHide() {
+      this.settings = {};
+      this.componentName = "";
+    },
+  mounted() {
+    this.$modal.EventBus.$on("show", this.onShow); </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//подписываемся на плагин</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    this.$modal.EventBus.$on("hide", this.onHide);
+  },
+  beforeDestroy() {
+    this.$modal.EventBus.$off("show");</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //отписываемся от плагина</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    this.$modal.EventBus.$off("hide");
+  },</t>
+    </r>
+  </si>
+  <si>
+    <t>Дочерний компонент
+Dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;template&gt;
+  &lt;main&gt;
+    &lt;!-- &lt;AddPaymentForm /&gt; --&gt;
+    &lt;PaymentsDisplay :items="currentElements" /&gt;
+    &lt;Pagination
+      :n="n"
+      :cur="page"
+      :length="getPaymentsList.length"
+      @paginate="changePage"
+    /&gt;
+    &lt;button @click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>openModal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Add new cost +&lt;/button&gt;
+  &lt;/main&gt;
+&lt;/template&gt;
+  methods: {
+    openModal() {
+      this.$modal.show("dashboard", { </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//name - "dashboard"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        content: "addPaymentForm",  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//settings - content, header</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        header: "Add new cost",
+      });
+    },</t>
+    </r>
+  </si>
+  <si>
+    <t>Родительский компонент App</t>
+  </si>
+  <si>
+    <t>Пример с модальным окном - добавление расходов</t>
+  </si>
+  <si>
+    <t>Пример с модальным окном - авторизация</t>
+  </si>
+  <si>
+    <t>&lt;template&gt;
+  &lt;div&gt;
+    about
+    &lt;button @click="openModal"&gt;Open&lt;/button&gt;
+  &lt;/div&gt;
+&lt;/template&gt;
+&lt;script&gt;
+export default {
+  name: "About",
+  methods: {
+    openModal() {
+      this.$modal.show("auth", {
+        content: "auth",
+        header: "Auth Form",
+      });
+    },
+  },
+};
+&lt;/script&gt;
+&lt;style&gt;&lt;/style&gt;</t>
+  </si>
+  <si>
+    <t>Дочерний компонент About</t>
+  </si>
+  <si>
+    <t>isComponent</t>
+  </si>
+  <si>
+    <t>01 19 00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;template&gt;
+  &lt;div id="app"&gt;
+    &lt;div class="wrapper"&gt;
+      &lt;header&gt;
+        &lt;router-link to="/dashboard"&gt;Dashboard&lt;/router-link&gt; /
+        &lt;router-link to="/about"&gt;About&lt;/router-link&gt; /
+        &lt;span @click="goToPageNoFound"&gt;NotFound&lt;/span&gt;
+      &lt;/header&gt;
+      &lt;main&gt;
+        &lt;router-view /&gt;
+      &lt;/main&gt;
+      &lt;ModalWindowAddPaymentForm 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      :componentName="componentName"
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      :settings="settings" 
+      v-if="componentName" 
+      /&gt;
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/template&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;template&gt;
+  &lt;div id="app"&gt;
+    &lt;div class="wrapper"&gt;
+      &lt;header&gt;
+        &lt;router-link to="/dashboard"&gt;Dashboard&lt;/router-link&gt; /
+        &lt;router-link to="/about"&gt;About&lt;/router-link&gt; /
+        &lt;span @click="goToPageNoFound"&gt;NotFound&lt;/span&gt;
+      &lt;/header&gt;
+      &lt;main&gt;
+        &lt;router-view /&gt;
+      &lt;/main&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;ModalWindowAddPaymentForm 
+      :settings="settings" 
+      v-if="componentName" 
+      /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/template&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;template&gt;
+    &lt;div class="wrapper"&gt;
+        &lt;div class="header"&gt;{{settings.header}}&lt;/div&gt;
+        &lt;div class="content"&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            &lt;add-payment-form v-if="settings.content === 'addPaymentForm'"/&gt;
+            &lt;AuthForm v-if="settings.content === 'auth'" /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;component :is="componentName" /&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        &lt;/div&gt;
+        &lt;div class="footer"&gt;
+            &lt;button @click="onClickClose"&gt;Close&lt;/button&gt;
+        &lt;/div&gt;
+    &lt;/div&gt;
+&lt;/template&gt;
+&lt;script&gt;
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AddPaymentForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from './AddPaymentForm.vue';
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AuthForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from './AuthForm.vue';
+export default {
+    props:{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        componentName: String,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        settings: Object
+    },
+    components: {
+        AddPaymentForm,
+        AuthForm,
+    },
+    methods: {
+        onClickClose() {
+            this.$emit('close');
+        }
+    }
+}
+&lt;/script&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &lt;component :is="componentName" /&gt;
+осуществляет поиск по импортированным компонентам и их name</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 6 часть 3</t>
+  </si>
+  <si>
+    <t>Chunks</t>
+  </si>
+  <si>
+    <t>01 25 00</t>
+  </si>
+  <si>
+    <t>Chunks - раздробленные модули, которые можно импортировать по какому-то условию</t>
+  </si>
+  <si>
+    <t>Вариант 2 (дальнейшее разбиение на chunks)</t>
+  </si>
+  <si>
+    <t>App.vue</t>
+  </si>
+  <si>
+    <r>
+      <t>export default {
+  components: {
+    ModalWindowAddPaymentForm:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ()=&gt;import (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*webpackChunkName: "ModalWindowAddPaymentForm"*/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'./components/ModalWindowAddPaymentForm.vue'),
+  }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+  name: "App",
+  data() {
+    return {
+      settings: {},
+      componentName: "",
+    };
+  },
+  methods: {
+    goToPageNoFound() {
+      this.$router
+        .push({
+          name: "notfound",
+        })
+        .catch((err) =&gt; {
+          if (err.name !== "NavigationDuplicated") {
+            throw err; // Пробрасываем другие ошибки
+          }
+        });
+    },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import Vue from 'vue'
+import VueRouter from 'vue-router'
+Vue.use(VueRouter)
+const routes = [
+  {
+    path: '/dashboard',
+    name: 'dashboard',
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>component:()=&gt; import(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*webpackChunkName: "Dashboard"*/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "@/views/Dashboard.vue"),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  {
+    path: '/dashboard/:page',
+    name: 'dashboard',
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    component: ()=&gt; import(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*webpackChunkName: "Dashboard"*/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "@/views/Dashboard.vue")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  {
+    path: '/about',
+    name: 'about',
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    component: ()=&gt; import(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*webpackChunkName: "About"*/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "@/views/About.vue")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  {
+    path: '/notfound',
+    name: 'notfound',
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    component: ()=&gt; import(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/*webpackChunkName: "NotFound"*/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "@/views/NotFound.vue")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  },
+  {
+    path: "*", //все пути, которые не соответствуют выше указанным, будут перенаправлены на notfound
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    component: ()=&gt; import(/*webpackChunkName: "NotFound"*/ "@/views/NotFound.vue")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> //данный путь следует указывать в самом конце
+  }
+];
+const router = new VueRouter({
+  mode: 'history',
+  routes,
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 6 часть 4</t>
+  </si>
+  <si>
+    <t>01 35 00</t>
+  </si>
+  <si>
+    <t>`https://v3.ru.vuejs.org/ru/guide/transitions-enterleave.html</t>
+  </si>
+  <si>
+    <t>&lt;Transition&gt; for applying animations when an element or component is entering and leaving the DOM.</t>
+  </si>
+  <si>
+    <t>&lt;Transition&gt;</t>
+  </si>
+  <si>
+    <t>&lt;TransitionGroup&gt; for applying animations when an element or component is inserted into, removed from, or moved within a v-for list.</t>
+  </si>
+  <si>
+    <t>&lt;TransitionGroup&gt;</t>
+  </si>
+  <si>
+    <t>`https://vuejs.org/guide/built-ins/transition-group.html</t>
+  </si>
+  <si>
+    <t>Aside from these two components, we can also apply animations in Vue using other techniques such as toggling CSS classes or state-driven animations via style bindings.</t>
+  </si>
+  <si>
+    <t>additional techniques</t>
+  </si>
+  <si>
+    <t>`https://vuejs.org/guide/extras/animation.html</t>
+  </si>
+  <si>
+    <t>&lt;Transition&gt; is a built-in component: this means it is available in any component's template without having to register it.</t>
+  </si>
+  <si>
+    <t>&lt;Transition&gt; компонент</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Антимации
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Компонент &lt;Transition&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>Антимации</t>
+  </si>
+  <si>
+    <t>The enter or leave can be triggered by one of the following:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 Conditional rendering via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2 Conditional display via </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v-show</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3 Dynamic components toggling via the &lt;component&gt; special element
+4 Changing the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> special key attribute</t>
+    </r>
+  </si>
+  <si>
+    <t>.slide-fade-enter-active {
+  transition: all 0.3s ease-out;
+  will-change: transform, opacity;
+}
+.slide-fade-leave-active {
+  transition: all 0.8s cubic-bezier(1, 0.5, 0.8, 1);
+  will-change: transform, opacity;
+}
+.slide-fade-enter,
+.slide-fade-leave-to {
+  transform: translateX(20px);
+  opacity: 0;
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;template&gt;
+  &lt;div id="app"&gt;
+    &lt;div class="wrapper"&gt;
+      &lt;header&gt;
+        &lt;router-link to="/dashboard"&gt;Dashboard&lt;/router-link&gt; /
+        &lt;router-link to="/about"&gt;About&lt;/router-link&gt; /
+        &lt;span @click="goToPageNoFound"&gt;NotFound&lt;/span&gt;
+      &lt;/header&gt;
+      &lt;main&gt;
+        &lt;router-view /&gt;
+      &lt;/main&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;transition name="slide-fade"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        &lt;ModalWindowAddPaymentForm
+          :componentName="componentName"
+          :settings="settings"
+          v-if="componentName"
+        /&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      &lt;/transition&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/template&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Документация для vue 3</t>
+  </si>
+  <si>
+    <r>
+      <t>v-enter-from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF213547"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Starting state for enter. Added before the element is inserted, removed one frame after the element is inserted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v-enter-active</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF213547"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Active state for enter. Applied during the entire entering phase. Added before the element is inserted, removed when the transition/animation finishes. This class can be used to define the duration, delay and easing curve for the entering transition.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v-enter-to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF213547"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>: Ending state for enter. Added one frame after the element is inserted (at the same time </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF213547"/>
+        <rFont val="Var(--vt-font-family-mono)"/>
+      </rPr>
+      <t>v-enter-from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF213547"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> is removed), removed when the transition/animation finishes.</t>
+    </r>
+  </si>
+  <si>
+    <t>v-enter-from:</t>
+  </si>
+  <si>
+    <t>v-enter-active:</t>
+  </si>
+  <si>
+    <t>v-enter-to:</t>
+  </si>
+  <si>
+    <t>v-enter</t>
+  </si>
+  <si>
+    <t>Документация для vue 2</t>
+  </si>
+  <si>
+    <t>`https://vuejs.org/guide/built-ins/transition.html#the-transition-component</t>
+  </si>
+  <si>
+    <t>Больше тут</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5130,8 +7142,38 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF213547"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF213547"/>
+      <name val="Var(--vt-font-family-mono)"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5216,6 +7258,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -5228,9 +7276,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5241,20 +7289,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5266,7 +7314,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -5278,69 +7326,105 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5885,6 +7969,270 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65331</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2155341</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>1165266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{885F5224-B6C1-46F2-8968-BC05187C51CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2530625" y="156624618"/>
+          <a:ext cx="2086200" cy="1090634"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>63425</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2136499</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>1159697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF67A53-9EAF-454C-AA49-9524027C9F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2528719" y="157913293"/>
+          <a:ext cx="2073074" cy="1077671"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1828799</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>15808</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3678913</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>1906905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Рисунок 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C35358D-D606-434F-BCCD-34FEBD91D907}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762874" y="179714458"/>
+          <a:ext cx="1857734" cy="1889192"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>59054</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>54402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1463471</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>1945005</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Рисунок 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833F3F88-C617-4641-971A-4D3D0EAB13D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5993129" y="179934027"/>
+          <a:ext cx="1396797" cy="1888698"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47843</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>891540</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>1730370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Рисунок 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD50C332-6C5D-4687-B865-EA4049B95FC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514818" y="182104665"/>
+          <a:ext cx="843697" cy="1686555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48395</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1848296</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>2170302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90D11895-AC26-4E97-9155-96E3328E3A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10859270" y="190966724"/>
+          <a:ext cx="1799901" cy="2046478"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6154,13 +8502,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V172"/>
+  <dimension ref="A2:V288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C169" sqref="C169"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
     <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
@@ -6191,7 +8539,7 @@
     <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" s="3"/>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -6210,7 +8558,7 @@
       <c r="S2" s="5"/>
       <c r="U2" s="5"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -6221,12 +8569,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -6234,7 +8582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -6245,12 +8593,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="28.8">
       <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="100.8">
       <c r="B8" s="2" t="s">
         <v>217</v>
       </c>
@@ -6258,7 +8606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -6269,7 +8617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -6280,7 +8628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -6294,7 +8642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="28.8">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -6305,7 +8653,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" ht="28.8">
       <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
@@ -6313,7 +8661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="28.8">
       <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
@@ -6321,7 +8669,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" ht="28.8">
       <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
@@ -6329,7 +8677,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6343,7 +8691,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="100.8">
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
@@ -6354,7 +8702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="28.8">
       <c r="A18" s="10" t="s">
         <v>30</v>
       </c>
@@ -6365,7 +8713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="100.8">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -6373,7 +8721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="100.8">
       <c r="A20" s="1" t="s">
         <v>34</v>
       </c>
@@ -6381,7 +8729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22">
       <c r="A22" s="3"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -6400,7 +8748,7 @@
       <c r="S22" s="5"/>
       <c r="U22" s="5"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -6411,7 +8759,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="28.8">
       <c r="A24" s="10" t="s">
         <v>37</v>
       </c>
@@ -6419,7 +8767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22">
       <c r="A25" s="12" t="s">
         <v>39</v>
       </c>
@@ -6427,7 +8775,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="57.6">
       <c r="B26" s="2" t="s">
         <v>38</v>
       </c>
@@ -6435,7 +8783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" ht="28.8">
       <c r="C27" s="9" t="s">
         <v>44</v>
       </c>
@@ -6443,12 +8791,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22">
       <c r="A28" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="72">
       <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
@@ -6456,7 +8804,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22">
       <c r="A30" s="11" t="s">
         <v>40</v>
       </c>
@@ -6464,7 +8812,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" ht="129.6">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -6475,7 +8823,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" ht="57.6">
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
@@ -6486,7 +8834,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="115.2">
       <c r="B33" s="2" t="s">
         <v>51</v>
       </c>
@@ -6494,7 +8842,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="115.2">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -6508,7 +8856,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="72">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -6519,7 +8867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="115.2">
       <c r="C36" s="13" t="s">
         <v>64</v>
       </c>
@@ -6527,7 +8875,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>113</v>
       </c>
@@ -6536,7 +8884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="43.2">
       <c r="B38" s="18" t="s">
         <v>191</v>
       </c>
@@ -6544,7 +8892,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="187.2">
       <c r="B39" s="2" t="s">
         <v>121</v>
       </c>
@@ -6552,12 +8900,12 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="28.8">
       <c r="C40" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4">
       <c r="C41" s="13" t="s">
         <v>119</v>
       </c>
@@ -6565,12 +8913,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="28.8">
       <c r="A43" s="2" t="s">
         <v>62</v>
       </c>
@@ -6578,17 +8926,17 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="28.8">
       <c r="C44" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="28.8">
       <c r="A45" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4">
       <c r="C46" s="2" t="s">
         <v>65</v>
       </c>
@@ -6596,12 +8944,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4">
       <c r="A47" s="14" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="86.4">
       <c r="A48" s="1" t="s">
         <v>67</v>
       </c>
@@ -6609,7 +8957,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
         <v>74</v>
       </c>
@@ -6620,7 +8968,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="216" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="216">
       <c r="A50" s="18" t="s">
         <v>184</v>
       </c>
@@ -6631,13 +8979,13 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:22">
       <c r="A51" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="86.4">
       <c r="A52" s="2" t="s">
         <v>180</v>
       </c>
@@ -6648,12 +8996,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:22" ht="43.2">
       <c r="C53" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22">
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
@@ -6672,7 +9020,7 @@
       <c r="S58" s="5"/>
       <c r="U58" s="5"/>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -6683,17 +9031,17 @@
       <c r="U59" s="1"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:22">
       <c r="A60" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22">
       <c r="A61" s="15" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:22" ht="28.8">
       <c r="A62" s="1" t="s">
         <v>80</v>
       </c>
@@ -6707,7 +9055,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:22" ht="57.6">
       <c r="A63" s="1" t="s">
         <v>82</v>
       </c>
@@ -6718,7 +9066,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="28.8">
       <c r="A64" s="13" t="s">
         <v>99</v>
       </c>
@@ -6730,7 +9078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" ht="28.8">
       <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
@@ -6739,7 +9087,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -6747,7 +9095,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" ht="72">
       <c r="B67" s="2" t="s">
         <v>95</v>
       </c>
@@ -6755,17 +9103,17 @@
         <v>93</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" ht="144">
       <c r="C68" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" ht="115.2">
       <c r="C69" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22">
       <c r="A70" s="15" t="s">
         <v>88</v>
       </c>
@@ -6773,7 +9121,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" ht="43.2">
       <c r="A71" s="1" t="s">
         <v>91</v>
       </c>
@@ -6784,7 +9132,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" ht="28.8">
       <c r="A72" s="1" t="s">
         <v>105</v>
       </c>
@@ -6793,7 +9141,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" ht="129.6">
       <c r="A73" s="1" t="s">
         <v>106</v>
       </c>
@@ -6804,7 +9152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" ht="100.8">
       <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
@@ -6815,7 +9163,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="72" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:22" ht="72">
       <c r="B75" s="2" t="s">
         <v>110</v>
       </c>
@@ -6823,11 +9171,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:22">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:22">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
@@ -6846,7 +9194,7 @@
       <c r="S77" s="5"/>
       <c r="U77" s="5"/>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
         <v>122</v>
       </c>
@@ -6857,7 +9205,7 @@
       <c r="U78" s="1"/>
       <c r="V78" s="2"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22">
       <c r="A79" s="10" t="s">
         <v>123</v>
       </c>
@@ -6869,7 +9217,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" ht="409.6">
       <c r="C80" s="2" t="s">
         <v>147</v>
       </c>
@@ -6877,7 +9225,7 @@
       <c r="U80" s="1"/>
       <c r="V80" s="2"/>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:22">
       <c r="A81" s="11" t="s">
         <v>129</v>
       </c>
@@ -6888,7 +9236,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:22" ht="86.4">
       <c r="A82" s="1" t="s">
         <v>124</v>
       </c>
@@ -6899,7 +9247,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:22" ht="43.2">
       <c r="A83" s="1" t="s">
         <v>125</v>
       </c>
@@ -6910,7 +9258,7 @@
       <c r="U83" s="1"/>
       <c r="V83" s="2"/>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:22">
       <c r="A84" s="11" t="s">
         <v>133</v>
       </c>
@@ -6919,7 +9267,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:22" ht="28.8">
       <c r="A85" s="1" t="s">
         <v>126</v>
       </c>
@@ -6930,7 +9278,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:22" ht="28.8">
       <c r="A86" s="1" t="s">
         <v>127</v>
       </c>
@@ -6941,7 +9289,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:22" ht="158.4">
       <c r="B87" s="2" t="s">
         <v>157</v>
       </c>
@@ -6952,7 +9300,7 @@
       <c r="U87" s="1"/>
       <c r="V87" s="2"/>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:22">
       <c r="A88" s="11" t="s">
         <v>136</v>
       </c>
@@ -6961,7 +9309,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:22" ht="28.8">
       <c r="A89" s="1" t="s">
         <v>138</v>
       </c>
@@ -6975,7 +9323,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:22" ht="28.8">
       <c r="A90" s="1" t="s">
         <v>140</v>
       </c>
@@ -6986,7 +9334,7 @@
       <c r="U90" s="1"/>
       <c r="V90" s="2"/>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:22">
       <c r="A91" s="11" t="s">
         <v>141</v>
       </c>
@@ -6997,7 +9345,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:22" ht="28.8">
       <c r="A92" s="1" t="s">
         <v>145</v>
       </c>
@@ -7008,7 +9356,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:22" ht="86.4">
       <c r="B93" s="2" t="s">
         <v>158</v>
       </c>
@@ -7022,7 +9370,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:22" ht="28.8">
       <c r="A94" s="1" t="s">
         <v>146</v>
       </c>
@@ -7033,7 +9381,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:22" ht="28.8">
       <c r="C95" s="17" t="s">
         <v>163</v>
       </c>
@@ -7041,7 +9389,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:22" ht="374.4">
       <c r="A96" s="2" t="s">
         <v>170</v>
       </c>
@@ -7055,7 +9403,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:22" ht="409.6">
       <c r="B97" s="2" t="s">
         <v>165</v>
       </c>
@@ -7066,7 +9414,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:22" ht="409.6">
       <c r="B98" s="2" t="s">
         <v>167</v>
       </c>
@@ -7077,18 +9425,18 @@
       <c r="U98" s="1"/>
       <c r="V98" s="2"/>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:22">
       <c r="C99" s="2"/>
       <c r="P99" s="1"/>
       <c r="U99" s="1"/>
       <c r="V99" s="2"/>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:22">
       <c r="A100" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:22" ht="28.8">
       <c r="A101" s="1" t="s">
         <v>149</v>
       </c>
@@ -7096,7 +9444,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:22">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
       <c r="C102" s="6"/>
@@ -7115,7 +9463,7 @@
       <c r="S102" s="5"/>
       <c r="U102" s="5"/>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
         <v>161</v>
       </c>
@@ -7126,12 +9474,12 @@
       <c r="U103" s="1"/>
       <c r="V103" s="2"/>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:22">
       <c r="A104" s="10" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:22" ht="43.2">
       <c r="A105" s="1" t="s">
         <v>152</v>
       </c>
@@ -7142,7 +9490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:22" ht="28.8">
       <c r="A106" s="13" t="s">
         <v>229</v>
       </c>
@@ -7150,7 +9498,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:22" ht="57.6">
       <c r="A107" s="1" t="s">
         <v>230</v>
       </c>
@@ -7158,7 +9506,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:22" ht="115.2">
       <c r="B108" s="2" t="s">
         <v>232</v>
       </c>
@@ -7169,7 +9517,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:22">
       <c r="A112" s="10" t="s">
         <v>50</v>
       </c>
@@ -7177,7 +9525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="57.6">
       <c r="A113" s="18" t="s">
         <v>192</v>
       </c>
@@ -7188,14 +9536,14 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="72">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="28.8">
       <c r="B115" s="2" t="s">
         <v>174</v>
       </c>
@@ -7203,7 +9551,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="43.2">
       <c r="B116" s="2" t="s">
         <v>220</v>
       </c>
@@ -7211,7 +9559,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="259.2">
       <c r="B117" s="2" t="s">
         <v>219</v>
       </c>
@@ -7219,7 +9567,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="28.8">
       <c r="B118" s="2" t="s">
         <v>177</v>
       </c>
@@ -7227,7 +9575,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="216">
       <c r="B119" s="2" t="s">
         <v>179</v>
       </c>
@@ -7235,12 +9583,12 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4">
       <c r="A120" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="409.6">
       <c r="B121" s="2" t="s">
         <v>182</v>
       </c>
@@ -7248,7 +9596,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="72">
       <c r="A122" s="33" t="s">
         <v>224</v>
       </c>
@@ -7256,7 +9604,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="374.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="374.4">
       <c r="C123" s="18" t="s">
         <v>225</v>
       </c>
@@ -7264,7 +9612,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="331.2">
       <c r="C124" s="18" t="s">
         <v>228</v>
       </c>
@@ -7272,7 +9620,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4">
       <c r="A125" s="10" t="s">
         <v>193</v>
       </c>
@@ -7280,7 +9628,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="115.2">
       <c r="A126" s="18" t="s">
         <v>195</v>
       </c>
@@ -7291,7 +9639,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4">
       <c r="C127" s="10" t="s">
         <v>201</v>
       </c>
@@ -7299,7 +9647,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="158.4">
       <c r="B128" s="2" t="s">
         <v>215</v>
       </c>
@@ -7310,12 +9658,12 @@
         <v>213</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:22" ht="144">
       <c r="D129" s="2" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:22">
       <c r="A132" s="3"/>
       <c r="B132" s="5"/>
       <c r="C132" s="6"/>
@@ -7334,7 +9682,7 @@
       <c r="S132" s="5"/>
       <c r="U132" s="5"/>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
         <v>171</v>
       </c>
@@ -7345,12 +9693,12 @@
       <c r="U133" s="1"/>
       <c r="V133" s="2"/>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:22">
       <c r="A134" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:22" ht="57.6">
       <c r="A135" s="1" t="s">
         <v>289</v>
       </c>
@@ -7364,7 +9712,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:22" ht="144">
       <c r="A136" s="1" t="s">
         <v>288</v>
       </c>
@@ -7378,22 +9726,22 @@
         <v>285</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:22">
       <c r="C137" s="18"/>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:22">
       <c r="C138" s="18"/>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:22">
       <c r="C139" s="18"/>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:22">
       <c r="C140" s="18"/>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:22">
       <c r="C141" s="18"/>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:22">
       <c r="A142" s="3"/>
       <c r="B142" s="5"/>
       <c r="C142" s="6"/>
@@ -7412,7 +9760,7 @@
       <c r="S142" s="5"/>
       <c r="U142" s="5"/>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:22">
       <c r="A143" s="1" t="s">
         <v>218</v>
       </c>
@@ -7423,7 +9771,7 @@
       <c r="U143" s="1"/>
       <c r="V143" s="2"/>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:22">
       <c r="A144" s="10" t="s">
         <v>237</v>
       </c>
@@ -7431,7 +9779,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="158.4">
       <c r="B145" s="2" t="s">
         <v>266</v>
       </c>
@@ -7439,19 +9787,19 @@
         <v>238</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4">
       <c r="A146" s="10" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
         <v>244</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="72">
       <c r="B148" s="2" t="s">
         <v>240</v>
       </c>
@@ -7459,23 +9807,23 @@
         <v>249</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
         <v>245</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A150" s="38"/>
+    <row r="150" spans="1:4" ht="187.2">
+      <c r="A150" s="36"/>
       <c r="B150" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C150" s="38" t="s">
+      <c r="C150" s="36" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="57.6">
       <c r="A151" s="1" t="s">
         <v>281</v>
       </c>
@@ -7486,25 +9834,25 @@
         <v>280</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="216" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="216">
       <c r="A152" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C152" s="38" t="s">
+      <c r="C152" s="36" t="s">
         <v>301</v>
       </c>
       <c r="D152" s="18" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
         <v>246</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="144">
       <c r="A154" s="16"/>
       <c r="B154" s="2" t="s">
         <v>242</v>
@@ -7516,7 +9864,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="230.4">
       <c r="A155" s="1" t="s">
         <v>272</v>
       </c>
@@ -7524,7 +9872,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" ht="144">
       <c r="A156" s="1" t="s">
         <v>273</v>
       </c>
@@ -7538,7 +9886,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="43.2">
       <c r="B157" s="2" t="s">
         <v>277</v>
       </c>
@@ -7547,7 +9895,7 @@
       </c>
       <c r="D157" s="18"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
         <v>247</v>
       </c>
@@ -7557,7 +9905,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" ht="244.8">
       <c r="B159" s="2" t="s">
         <v>254</v>
       </c>
@@ -7568,7 +9916,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" ht="331.2">
       <c r="A160" s="1" t="s">
         <v>296</v>
       </c>
@@ -7579,7 +9927,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:22" ht="115.2">
       <c r="A161" s="1" t="s">
         <v>297</v>
       </c>
@@ -7590,14 +9938,14 @@
         <v>298</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:22">
       <c r="A162" s="11" t="s">
         <v>248</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:22" ht="172.8">
       <c r="B163" s="2" t="s">
         <v>243</v>
       </c>
@@ -7605,17 +9953,17 @@
         <v>252</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:22">
       <c r="A164" s="34" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:22" ht="43.2">
       <c r="C165" s="18" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:22">
       <c r="A166" s="10" t="s">
         <v>262</v>
       </c>
@@ -7626,7 +9974,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="144" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:22" ht="144">
       <c r="A167" s="2" t="s">
         <v>27</v>
       </c>
@@ -7640,7 +9988,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:22" ht="409.6">
       <c r="A168" s="2" t="s">
         <v>257</v>
       </c>
@@ -7654,7 +10002,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:22" ht="409.6">
       <c r="A169" s="18" t="s">
         <v>263</v>
       </c>
@@ -7665,7 +10013,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:22">
       <c r="A170" s="3"/>
       <c r="B170" s="5"/>
       <c r="C170" s="6"/>
@@ -7684,7 +10032,7 @@
       <c r="S170" s="5"/>
       <c r="U170" s="5"/>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:22">
       <c r="A171" s="1" t="s">
         <v>302</v>
       </c>
@@ -7695,7 +10043,7 @@
       <c r="U171" s="1"/>
       <c r="V171" s="2"/>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:22">
       <c r="A172" s="10" t="s">
         <v>303</v>
       </c>
@@ -7703,8 +10051,860 @@
         <v>304</v>
       </c>
     </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="3"/>
+      <c r="B180" s="5"/>
+      <c r="C180" s="6"/>
+      <c r="D180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
+      <c r="M180" s="3"/>
+      <c r="N180" s="3"/>
+      <c r="P180" s="5"/>
+      <c r="Q180" s="5"/>
+      <c r="R180" s="5"/>
+      <c r="S180" s="5"/>
+      <c r="U180" s="5"/>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="P181" s="1"/>
+      <c r="U181" s="1"/>
+      <c r="V181" s="2"/>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" ht="100.8">
+      <c r="A183" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" s="37" t="s">
+        <v>311</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" ht="100.8">
+      <c r="A184" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C184" s="37" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" ht="129.6">
+      <c r="A185" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="C185" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" s="3"/>
+      <c r="B188" s="5"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="3"/>
+      <c r="F188" s="3"/>
+      <c r="G188" s="5"/>
+      <c r="H188" s="3"/>
+      <c r="I188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3"/>
+      <c r="M188" s="3"/>
+      <c r="N188" s="3"/>
+      <c r="P188" s="5"/>
+      <c r="Q188" s="5"/>
+      <c r="R188" s="5"/>
+      <c r="S188" s="5"/>
+      <c r="U188" s="5"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="P189" s="1"/>
+      <c r="U189" s="1"/>
+      <c r="V189" s="2"/>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" ht="72">
+      <c r="A191" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" ht="259.2">
+      <c r="B192" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22">
+      <c r="A194" s="3"/>
+      <c r="B194" s="5"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="3"/>
+      <c r="F194" s="3"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="3"/>
+      <c r="I194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3"/>
+      <c r="M194" s="3"/>
+      <c r="N194" s="3"/>
+      <c r="P194" s="5"/>
+      <c r="Q194" s="5"/>
+      <c r="R194" s="5"/>
+      <c r="S194" s="5"/>
+      <c r="U194" s="5"/>
+    </row>
+    <row r="195" spans="1:22">
+      <c r="A195" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="P195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="2"/>
+    </row>
+    <row r="196" spans="1:22">
+      <c r="A196" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22">
+      <c r="A197" s="38" t="s">
+        <v>332</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22">
+      <c r="A198" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22">
+      <c r="A199" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22">
+      <c r="A200" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" ht="409.6">
+      <c r="C201" s="42" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="202" spans="1:22">
+      <c r="A202" s="14" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="203" spans="1:22" ht="115.2">
+      <c r="B203" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="204" spans="1:22">
+      <c r="A204" s="10" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="205" spans="1:22" ht="72">
+      <c r="C205" s="40" t="s">
+        <v>344</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="206" spans="1:22">
+      <c r="A206" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C206" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="D206" s="16"/>
+    </row>
+    <row r="207" spans="1:22" ht="144">
+      <c r="C207" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="D207" s="16"/>
+    </row>
+    <row r="208" spans="1:22">
+      <c r="A208" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C208" s="40" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="28.8">
+      <c r="C209" s="42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C210" s="40" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="72">
+      <c r="C211" s="40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="41" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="C213" s="40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="C214" s="40" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="C215" s="40" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="158.4">
+      <c r="B217" s="40" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="144">
+      <c r="B219" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C219" s="40" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="86.4">
+      <c r="B220" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C220" s="42" t="s">
+        <v>361</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="72">
+      <c r="A222" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C222" s="42" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="158.4">
+      <c r="B223" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C223" s="42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" ht="187.2">
+      <c r="B225" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C225" s="42" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22">
+      <c r="A226" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="227" spans="1:22" ht="216">
+      <c r="A227" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C227" s="42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="228" spans="1:22" ht="201.6">
+      <c r="A228" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C228" s="42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="229" spans="1:22" ht="158.4">
+      <c r="A229" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="C229" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="230" spans="1:22" ht="28.8">
+      <c r="A230" s="44" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="231" spans="1:22" ht="144">
+      <c r="B231" s="1"/>
+      <c r="C231" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="D231" s="43" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="232" spans="1:22">
+      <c r="A232" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="C232" s="1"/>
+      <c r="D232" s="43"/>
+    </row>
+    <row r="233" spans="1:22" ht="72">
+      <c r="C233" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="234" spans="1:22">
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="1:22">
+      <c r="A235" s="3"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="P235" s="5"/>
+      <c r="Q235" s="5"/>
+      <c r="R235" s="5"/>
+      <c r="S235" s="5"/>
+      <c r="U235" s="5"/>
+    </row>
+    <row r="236" spans="1:22">
+      <c r="A236" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="P236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="2"/>
+    </row>
+    <row r="237" spans="1:22">
+      <c r="A237" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="243" spans="1:22">
+      <c r="A243" s="3"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="P243" s="5"/>
+      <c r="Q243" s="5"/>
+      <c r="R243" s="5"/>
+      <c r="S243" s="5"/>
+      <c r="U243" s="5"/>
+    </row>
+    <row r="244" spans="1:22" ht="28.8">
+      <c r="A244" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C244" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="P244" s="1"/>
+      <c r="U244" s="1"/>
+      <c r="V244" s="2"/>
+    </row>
+    <row r="245" spans="1:22">
+      <c r="A245" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="246" spans="1:22" ht="57.6">
+      <c r="C246" s="45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:22" ht="28.8">
+      <c r="A247" s="44" t="s">
+        <v>408</v>
+      </c>
+      <c r="C247" s="45"/>
+    </row>
+    <row r="248" spans="1:22" ht="288">
+      <c r="A248" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C248" s="46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="249" spans="1:22" ht="302.39999999999998">
+      <c r="A249" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C249" s="45" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="250" spans="1:22" ht="409.6">
+      <c r="A250" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C250" s="45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="251" spans="1:22" ht="273.60000000000002">
+      <c r="A251" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C251" s="45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="252" spans="1:22">
+      <c r="A252" s="41" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="253" spans="1:22" ht="86.4">
+      <c r="B253" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C253" s="45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="254" spans="1:22" ht="28.8">
+      <c r="A254" s="44" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="255" spans="1:22" ht="316.8">
+      <c r="A255" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C255" s="45" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22">
+      <c r="A256" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="257" spans="1:22" ht="409.6">
+      <c r="A257" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B257" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="C257" s="45" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="258" spans="1:22" ht="288">
+      <c r="A258" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C258" s="45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="260" spans="1:22">
+      <c r="A260" s="3"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="5"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="P260" s="5"/>
+      <c r="Q260" s="5"/>
+      <c r="R260" s="5"/>
+      <c r="S260" s="5"/>
+      <c r="U260" s="5"/>
+    </row>
+    <row r="261" spans="1:22">
+      <c r="A261" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C261" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="P261" s="1"/>
+      <c r="U261" s="1"/>
+      <c r="V261" s="2"/>
+    </row>
+    <row r="262" spans="1:22" ht="28.8">
+      <c r="C262" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="263" spans="1:22" ht="409.6">
+      <c r="A263" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C263" s="46" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="264" spans="1:22" ht="360">
+      <c r="A264" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C264" s="46" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="266" spans="1:22">
+      <c r="A266" s="3"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="5"/>
+      <c r="H266" s="3"/>
+      <c r="I266" s="3"/>
+      <c r="K266" s="3"/>
+      <c r="L266" s="3"/>
+      <c r="M266" s="3"/>
+      <c r="N266" s="3"/>
+      <c r="P266" s="5"/>
+      <c r="Q266" s="5"/>
+      <c r="R266" s="5"/>
+      <c r="S266" s="5"/>
+      <c r="U266" s="5"/>
+    </row>
+    <row r="267" spans="1:22" ht="28.8">
+      <c r="A267" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="P267" s="1"/>
+      <c r="U267" s="1"/>
+      <c r="V267" s="2"/>
+    </row>
+    <row r="268" spans="1:22">
+      <c r="A268" s="10" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="269" spans="1:22" ht="28.8">
+      <c r="A269" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C269" s="49" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="270" spans="1:22" ht="28.8">
+      <c r="A270" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C270" s="49" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="271" spans="1:22" ht="28.8">
+      <c r="A271" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C271" s="49" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="272" spans="1:22">
+      <c r="A272" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="1:3" ht="28.8">
+      <c r="A273" s="2"/>
+      <c r="C273" s="49" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="57.6">
+      <c r="A274" s="49" t="s">
+        <v>441</v>
+      </c>
+      <c r="C274" s="49" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C275" s="49"/>
+    </row>
+    <row r="276" spans="1:3" ht="30">
+      <c r="A276" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C276" s="50" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="60">
+      <c r="A277" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C277" s="50" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="45">
+      <c r="A278" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C278" s="50" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="28.8">
+      <c r="A279" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C279" s="49"/>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2"/>
+      <c r="C280" s="49"/>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2"/>
+      <c r="C281" s="49"/>
+    </row>
+    <row r="282" spans="1:3" ht="302.39999999999998">
+      <c r="B282" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C282" s="49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="216">
+      <c r="C283" s="49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="B288" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7722,7 +10922,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="20" customWidth="1"/>
     <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
@@ -7753,13 +10953,13 @@
     <col min="28" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
+      <c r="A1" s="47"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7778,7 +10978,7 @@
       <c r="S2" s="24"/>
       <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="C3" s="25" t="s">
         <v>202</v>
       </c>
@@ -7786,7 +10986,7 @@
       <c r="U3" s="20"/>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="19" customFormat="1">
       <c r="A4" s="28" t="s">
         <v>202</v>
       </c>
@@ -7809,27 +11009,27 @@
       <c r="U4" s="21"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="86.4">
       <c r="C5" s="21" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" ht="244.8">
       <c r="C7" s="21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" s="31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="43.2">
       <c r="B9" s="21" t="s">
         <v>210</v>
       </c>
@@ -7837,7 +11037,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" ht="172.8">
       <c r="B10" s="21" t="s">
         <v>208</v>
       </c>
@@ -7845,12 +11045,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" s="32" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" ht="244.8">
       <c r="C12" s="21" t="s">
         <v>211</v>
       </c>
@@ -7876,7 +11076,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="20" customWidth="1"/>
     <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
@@ -7907,15 +11107,15 @@
     <col min="28" max="16384" width="8.77734375" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -7934,7 +11134,7 @@
       <c r="S2" s="24"/>
       <c r="U2" s="24"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" s="20" t="s">
         <v>186</v>
       </c>
@@ -7945,7 +11145,7 @@
       <c r="U3" s="20"/>
       <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:22" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="19" customFormat="1">
       <c r="A4" s="26" t="s">
         <v>188</v>
       </c>
@@ -7968,12 +11168,12 @@
       <c r="U4" s="21"/>
       <c r="V4" s="20"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" s="20" t="s">
         <v>190</v>
       </c>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BC692-FE07-4E18-9141-FEF3D839F28B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72BAF2-CF9B-4288-891C-4C026C85348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14310" yWindow="-19215" windowWidth="20745" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="459">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -6908,17 +6908,121 @@
   <si>
     <t>Больше тут</t>
   </si>
+  <si>
+    <t>Vue css</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;el-button
+                    style="
+                        box-sizing: border-box;
+                        width: calc(100% / 3);
+                        margin-right: 0px;
+                        margin-left: 0px;
+                    "
+                    type="button"
+                    size="mini"
+                    class="btn el-filter-icon fa fa-align-justify"
+                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                    v-on:click="addColorFormatting"
+                &gt;
+                &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data() {
+        return {
+            valueTypesDict: {
+                maxbydefault: "Максимальное значение",
+                minbydefault: "Минимальное значение",
+                number: "Число",
+                percent: "Процент",
+                percentile: "Процентиль",
+            },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            activeStyleColor: {
+                backgroundColor: "#409EFF",
+                borderColor: "#409EFF",
+                color: "#fff",
+            },
+            activeStyleHistogram: {
+                backgroundColor: "#9C9E21",
+                borderColor: "#9C9E21",
+                color: "#fff",
+            },
+            activeStyleIcon: {
+                backgroundColor: "#AD3131",
+                borderColor: "#AD3131",
+                color: "#fff",
+            },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        };
+    },</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7276,9 +7380,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7289,20 +7393,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7314,7 +7418,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7326,86 +7430,89 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7414,17 +7521,17 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8502,10 +8609,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V288"/>
+  <dimension ref="A2:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D285" sqref="D285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -10786,7 +10893,7 @@
       <c r="B269" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C269" s="49" t="s">
+      <c r="C269" s="47" t="s">
         <v>429</v>
       </c>
     </row>
@@ -10797,7 +10904,7 @@
       <c r="B270" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C270" s="49" t="s">
+      <c r="C270" s="47" t="s">
         <v>431</v>
       </c>
     </row>
@@ -10808,7 +10915,7 @@
       <c r="B271" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C271" s="49" t="s">
+      <c r="C271" s="47" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10818,93 +10925,106 @@
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="28.8">
+    <row r="273" spans="1:4" ht="28.8">
       <c r="A273" s="2"/>
-      <c r="C273" s="49" t="s">
+      <c r="C273" s="47" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="57.6">
-      <c r="A274" s="49" t="s">
+    <row r="274" spans="1:4" ht="57.6">
+      <c r="A274" s="47" t="s">
         <v>441</v>
       </c>
-      <c r="C274" s="49" t="s">
+      <c r="C274" s="47" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:4">
       <c r="A275" s="12" t="s">
         <v>445</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="C275" s="49"/>
-    </row>
-    <row r="276" spans="1:3" ht="30">
+      <c r="C275" s="47"/>
+    </row>
+    <row r="276" spans="1:4" ht="30">
       <c r="A276" s="2" t="s">
         <v>449</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C276" s="50" t="s">
+      <c r="C276" s="48" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="60">
+    <row r="277" spans="1:4" ht="60">
       <c r="A277" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C277" s="50" t="s">
+      <c r="C277" s="48" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="45">
+    <row r="278" spans="1:4" ht="45">
       <c r="A278" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C278" s="50" t="s">
+      <c r="C278" s="48" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="28.8">
+    <row r="279" spans="1:4" ht="28.8">
       <c r="A279" s="2" t="s">
         <v>455</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C279" s="49"/>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="C279" s="47"/>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="2"/>
-      <c r="C280" s="49"/>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="C280" s="47"/>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="2"/>
-      <c r="C281" s="49"/>
-    </row>
-    <row r="282" spans="1:3" ht="302.39999999999998">
+      <c r="C281" s="47"/>
+    </row>
+    <row r="282" spans="1:4" ht="302.39999999999998">
       <c r="B282" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="51" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="216">
-      <c r="C283" s="49" t="s">
+    <row r="283" spans="1:4" ht="216">
+      <c r="C283" s="51" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
-      <c r="B288" s="2" t="s">
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="374.4">
+      <c r="C285" s="51" t="s">
+        <v>457</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="B286" s="2" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -10954,10 +11074,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="47"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="49"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11108,12 +11228,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F72BAF2-CF9B-4288-891C-4C026C85348B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6CABF9-5989-4A9A-B8C3-F8668DDF3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>npm install -g @vue/cli</t>
-  </si>
-  <si>
-    <t>vue create vp</t>
   </si>
   <si>
     <t>Установка командной строки</t>
@@ -7004,17 +7001,42 @@
     },</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vue create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF002060"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vp</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7380,7 +7402,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7393,20 +7415,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7418,7 +7440,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7430,86 +7452,89 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7518,24 +7543,21 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -8611,8 +8633,8 @@
   </sheetPr>
   <dimension ref="A2:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D285" sqref="D285"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -8678,7 +8700,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -8686,154 +8708,154 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>458</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="28.8">
       <c r="C7" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="100.8">
       <c r="B8" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="D11" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="28.8">
       <c r="B12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="28.8">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="28.8">
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="28.8">
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="28.8">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="100.8">
       <c r="B17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="28.8">
       <c r="A18" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="100.8">
       <c r="A19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="100.8">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -8860,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P23" s="1"/>
       <c r="U23" s="1"/>
@@ -8868,244 +8890,244 @@
     </row>
     <row r="24" spans="1:22" ht="28.8">
       <c r="A24" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:22">
       <c r="A25" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="57.6">
       <c r="B26" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="28.8">
       <c r="C27" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="72">
       <c r="B29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="129.6">
       <c r="A31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>48</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="57.6">
       <c r="A32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="115.2">
       <c r="B33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="115.2">
       <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="13" t="s">
+      <c r="D34" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="72">
       <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="115.2">
       <c r="C36" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="43.2">
       <c r="B38" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="187.2">
       <c r="B39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="28.8">
       <c r="C40" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="C41" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="28.8">
       <c r="A43" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="28.8">
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="28.8">
       <c r="A45" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="C46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="86.4">
       <c r="A48" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50" spans="1:22" ht="216">
       <c r="A50" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C51" s="13"/>
     </row>
     <row r="52" spans="1:22" ht="86.4">
       <c r="A52" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:22" ht="43.2">
       <c r="C53" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -9129,10 +9151,10 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P59" s="1"/>
       <c r="U59" s="1"/>
@@ -9140,142 +9162,142 @@
     </row>
     <row r="60" spans="1:22">
       <c r="A60" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:22" ht="28.8">
       <c r="A62" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:22" ht="57.6">
       <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:22" ht="28.8">
       <c r="A64" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:22" ht="28.8">
       <c r="A65" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="13"/>
       <c r="C65" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:22" ht="72">
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:22" ht="144">
       <c r="C68" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:22" ht="115.2">
       <c r="C69" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:22" ht="43.2">
       <c r="A71" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:22" ht="28.8">
       <c r="A72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:22" ht="129.6">
       <c r="A73" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:22" ht="100.8">
       <c r="A74" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:22" ht="72">
       <c r="B75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="76" spans="1:22">
@@ -9303,10 +9325,10 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="12" t="s">
         <v>122</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>123</v>
       </c>
       <c r="P78" s="1"/>
       <c r="U78" s="1"/>
@@ -9314,11 +9336,11 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P79" s="1"/>
       <c r="U79" s="1"/>
@@ -9326,7 +9348,7 @@
     </row>
     <row r="80" spans="1:22" ht="409.6">
       <c r="C80" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P80" s="1"/>
       <c r="U80" s="1"/>
@@ -9334,10 +9356,10 @@
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="P81" s="1"/>
       <c r="U81" s="1"/>
@@ -9345,10 +9367,10 @@
     </row>
     <row r="82" spans="1:22" ht="86.4">
       <c r="A82" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P82" s="1"/>
       <c r="U82" s="1"/>
@@ -9356,10 +9378,10 @@
     </row>
     <row r="83" spans="1:22" ht="43.2">
       <c r="A83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P83" s="1"/>
       <c r="U83" s="1"/>
@@ -9367,7 +9389,7 @@
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C84" s="2"/>
       <c r="P84" s="1"/>
@@ -9376,10 +9398,10 @@
     </row>
     <row r="85" spans="1:22" ht="28.8">
       <c r="A85" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="P85" s="1"/>
       <c r="U85" s="1"/>
@@ -9387,10 +9409,10 @@
     </row>
     <row r="86" spans="1:22" ht="28.8">
       <c r="A86" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="P86" s="1"/>
       <c r="U86" s="1"/>
@@ -9398,10 +9420,10 @@
     </row>
     <row r="87" spans="1:22" ht="158.4">
       <c r="B87" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P87" s="1"/>
       <c r="U87" s="1"/>
@@ -9409,7 +9431,7 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="2"/>
       <c r="P88" s="1"/>
@@ -9418,13 +9440,13 @@
     </row>
     <row r="89" spans="1:22" ht="28.8">
       <c r="A89" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P89" s="1"/>
       <c r="U89" s="1"/>
@@ -9432,10 +9454,10 @@
     </row>
     <row r="90" spans="1:22" ht="28.8">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P90" s="1"/>
       <c r="U90" s="1"/>
@@ -9443,10 +9465,10 @@
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="P91" s="1"/>
       <c r="U91" s="1"/>
@@ -9454,10 +9476,10 @@
     </row>
     <row r="92" spans="1:22" ht="28.8">
       <c r="A92" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P92" s="1"/>
       <c r="U92" s="1"/>
@@ -9465,13 +9487,13 @@
     </row>
     <row r="93" spans="1:22" ht="86.4">
       <c r="B93" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>160</v>
       </c>
       <c r="P93" s="1"/>
       <c r="U93" s="1"/>
@@ -9479,10 +9501,10 @@
     </row>
     <row r="94" spans="1:22" ht="28.8">
       <c r="A94" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P94" s="1"/>
       <c r="U94" s="1"/>
@@ -9490,7 +9512,7 @@
     </row>
     <row r="95" spans="1:22" ht="28.8">
       <c r="C95" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P95" s="1"/>
       <c r="U95" s="1"/>
@@ -9498,13 +9520,13 @@
     </row>
     <row r="96" spans="1:22" ht="374.4">
       <c r="A96" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P96" s="1"/>
       <c r="U96" s="1"/>
@@ -9512,10 +9534,10 @@
     </row>
     <row r="97" spans="1:22" ht="409.6">
       <c r="B97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="P97" s="1"/>
       <c r="U97" s="1"/>
@@ -9523,10 +9545,10 @@
     </row>
     <row r="98" spans="1:22" ht="409.6">
       <c r="B98" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="P98" s="1"/>
       <c r="U98" s="1"/>
@@ -9540,15 +9562,15 @@
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:22" ht="28.8">
       <c r="A101" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C101" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -9572,10 +9594,10 @@
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C103" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="P103" s="1"/>
       <c r="U103" s="1"/>
@@ -9583,191 +9605,191 @@
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105" spans="1:22" ht="43.2">
       <c r="A105" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="D105" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:22" ht="28.8">
       <c r="A106" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="107" spans="1:22" ht="57.6">
       <c r="A107" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:22" ht="115.2">
       <c r="B108" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C108" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="D108" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="57.6">
       <c r="A113" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="72">
       <c r="A114" s="18"/>
       <c r="B114" s="18"/>
       <c r="C114" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="28.8">
       <c r="B115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C115" s="18" t="s">
         <v>174</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="43.2">
       <c r="B116" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="259.2">
       <c r="B117" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="28.8">
       <c r="B118" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="18" t="s">
         <v>177</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="216">
       <c r="B119" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="409.6">
       <c r="B121" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="72">
       <c r="A122" s="33" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="374.4">
       <c r="C123" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="331.2">
       <c r="C124" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="115.2">
       <c r="A126" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="C127" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="158.4">
       <c r="B128" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="129" spans="1:22" ht="144">
       <c r="D129" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="132" spans="1:22">
@@ -9791,10 +9813,10 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P133" s="1"/>
       <c r="U133" s="1"/>
@@ -9802,35 +9824,35 @@
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="135" spans="1:22" ht="57.6">
       <c r="A135" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C135" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="136" spans="1:22" ht="144">
       <c r="A136" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -9869,10 +9891,10 @@
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P143" s="1"/>
       <c r="U143" s="1"/>
@@ -9880,43 +9902,43 @@
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="158.4">
       <c r="B145" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C145" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
     <row r="148" spans="1:4" ht="72">
       <c r="B148" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -9924,37 +9946,37 @@
     <row r="150" spans="1:4" ht="187.2">
       <c r="A150" s="36"/>
       <c r="B150" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C150" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="57.6">
       <c r="A151" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C151" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="D151" s="18" t="s">
         <v>279</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="216">
       <c r="A152" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C152" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -9962,162 +9984,162 @@
     <row r="154" spans="1:4" ht="144">
       <c r="A154" s="16"/>
       <c r="B154" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="230.4">
       <c r="A155" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="144">
       <c r="A156" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C156" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D156" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="43.2">
       <c r="B157" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" s="18" t="s">
         <v>277</v>
-      </c>
-      <c r="C157" s="18" t="s">
-        <v>278</v>
       </c>
       <c r="D157" s="18"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="244.8">
       <c r="B159" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C159" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="331.2">
       <c r="A160" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C160" s="18" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="161" spans="1:22" ht="115.2">
       <c r="A161" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="D161" s="18" t="s">
         <v>297</v>
-      </c>
-      <c r="C161" s="18" t="s">
-        <v>299</v>
-      </c>
-      <c r="D161" s="18" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
     <row r="163" spans="1:22" ht="172.8">
       <c r="B163" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="165" spans="1:22" ht="43.2">
       <c r="C165" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C166" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="D166" s="10" t="s">
         <v>267</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:22" ht="144">
       <c r="A167" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B167" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C167" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C167" s="18" t="s">
-        <v>261</v>
-      </c>
       <c r="D167" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:22" ht="409.6">
       <c r="A168" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C168" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="B168" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C168" s="18" t="s">
-        <v>258</v>
-      </c>
       <c r="D168" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:22" ht="409.6">
       <c r="A169" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B169" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="C169" s="18" t="s">
         <v>264</v>
-      </c>
-      <c r="C169" s="18" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -10141,10 +10163,10 @@
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C171" s="12" t="s">
         <v>302</v>
-      </c>
-      <c r="C171" s="12" t="s">
-        <v>303</v>
       </c>
       <c r="P171" s="1"/>
       <c r="U171" s="1"/>
@@ -10152,10 +10174,10 @@
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="D172" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -10179,10 +10201,10 @@
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P181" s="1"/>
       <c r="U181" s="1"/>
@@ -10190,49 +10212,49 @@
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="183" spans="1:22" ht="100.8">
       <c r="A183" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="37" t="s">
         <v>310</v>
       </c>
-      <c r="B183" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C183" s="37" t="s">
-        <v>311</v>
-      </c>
       <c r="D183" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="184" spans="1:22" ht="100.8">
       <c r="A184" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="185" spans="1:22" ht="129.6">
       <c r="A185" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C185" s="37" t="s">
         <v>316</v>
       </c>
-      <c r="B185" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C185" s="37" t="s">
-        <v>317</v>
-      </c>
       <c r="D185" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -10256,10 +10278,10 @@
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>305</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>306</v>
       </c>
       <c r="P189" s="1"/>
       <c r="U189" s="1"/>
@@ -10267,35 +10289,35 @@
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:22" ht="72">
       <c r="A191" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C191" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="D191" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="C191" s="37" t="s">
-        <v>321</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:22" ht="259.2">
       <c r="B192" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C192" s="37" t="s">
+        <v>323</v>
+      </c>
+      <c r="D192" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C192" s="37" t="s">
-        <v>324</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -10319,10 +10341,10 @@
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C195" s="12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P195" s="1"/>
       <c r="U195" s="1"/>
@@ -10330,278 +10352,278 @@
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="38" t="s">
+        <v>331</v>
+      </c>
+      <c r="C197" s="39" t="s">
         <v>332</v>
       </c>
-      <c r="C197" s="39" t="s">
-        <v>333</v>
-      </c>
       <c r="D197" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C198" s="39" t="s">
         <v>334</v>
-      </c>
-      <c r="C198" s="39" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:22">
       <c r="A199" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C199" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="201" spans="1:22" ht="409.6">
       <c r="C201" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="14" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="203" spans="1:22" ht="115.2">
       <c r="B203" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C203" s="39" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="204" spans="1:22">
       <c r="A204" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="205" spans="1:22" ht="72">
       <c r="C205" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C206" s="40" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D206" s="16"/>
     </row>
     <row r="207" spans="1:22" ht="144">
       <c r="C207" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C208" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="28.8">
       <c r="C209" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C210" s="40" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="72">
       <c r="C211" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="C213" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="C214" s="40" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="C215" s="40" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="158.4">
       <c r="B217" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="144">
       <c r="B219" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="C219" s="40" t="s">
         <v>356</v>
-      </c>
-      <c r="C219" s="40" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="86.4">
       <c r="B220" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C220" s="42" t="s">
         <v>360</v>
       </c>
-      <c r="C220" s="42" t="s">
-        <v>361</v>
-      </c>
       <c r="D220" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D221" s="16" t="s">
         <v>362</v>
-      </c>
-      <c r="D221" s="16" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="72">
       <c r="A222" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B222" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C222" s="42" t="s">
         <v>364</v>
-      </c>
-      <c r="C222" s="42" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="158.4">
       <c r="B223" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C223" s="42" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D224" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="225" spans="1:22" ht="187.2">
       <c r="B225" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C225" s="42" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="226" spans="1:22">
       <c r="A226" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="227" spans="1:22" ht="216">
       <c r="A227" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="42" t="s">
         <v>376</v>
-      </c>
-      <c r="C227" s="42" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="228" spans="1:22" ht="201.6">
       <c r="A228" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B228" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C228" s="42" t="s">
         <v>378</v>
-      </c>
-      <c r="C228" s="42" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:22" ht="158.4">
       <c r="A229" s="43" t="s">
+        <v>383</v>
+      </c>
+      <c r="C229" s="43" t="s">
         <v>384</v>
       </c>
-      <c r="C229" s="43" t="s">
-        <v>385</v>
-      </c>
       <c r="D229" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:22" ht="28.8">
       <c r="A230" s="44" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="231" spans="1:22" ht="144">
       <c r="B231" s="1"/>
       <c r="C231" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D231" s="43" t="s">
         <v>382</v>
-      </c>
-      <c r="D231" s="43" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="41" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C232" s="1"/>
       <c r="D232" s="43"/>
     </row>
     <row r="233" spans="1:22" ht="72">
       <c r="C233" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="234" spans="1:22">
@@ -10628,10 +10650,10 @@
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P236" s="1"/>
       <c r="U236" s="1"/>
@@ -10639,10 +10661,10 @@
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -10666,10 +10688,10 @@
     </row>
     <row r="244" spans="1:22" ht="28.8">
       <c r="A244" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C244" s="12" t="s">
         <v>391</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>392</v>
       </c>
       <c r="P244" s="1"/>
       <c r="U244" s="1"/>
@@ -10677,115 +10699,115 @@
     </row>
     <row r="245" spans="1:22">
       <c r="A245" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="246" spans="1:22" ht="57.6">
       <c r="C246" s="45" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="247" spans="1:22" ht="28.8">
       <c r="A247" s="44" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C247" s="45"/>
     </row>
     <row r="248" spans="1:22" ht="288">
       <c r="A248" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C248" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="249" spans="1:22" ht="302.39999999999998">
       <c r="A249" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C249" s="45" t="s">
         <v>405</v>
-      </c>
-      <c r="C249" s="45" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="250" spans="1:22" ht="409.6">
       <c r="A250" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C250" s="45" t="s">
         <v>402</v>
-      </c>
-      <c r="C250" s="45" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="251" spans="1:22" ht="273.60000000000002">
       <c r="A251" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C251" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="41" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="253" spans="1:22" ht="86.4">
       <c r="B253" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C253" s="45" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="254" spans="1:22" ht="28.8">
       <c r="A254" s="44" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="316.8">
       <c r="A255" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C255" s="45" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="256" spans="1:22">
       <c r="A256" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>412</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="257" spans="1:22" ht="409.6">
       <c r="A257" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C257" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="258" spans="1:22" ht="288">
       <c r="A258" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C258" s="45" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="260" spans="1:22">
@@ -10809,10 +10831,10 @@
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="C261" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="P261" s="1"/>
       <c r="U261" s="1"/>
@@ -10820,32 +10842,32 @@
     </row>
     <row r="262" spans="1:22" ht="28.8">
       <c r="C262" s="46" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D262" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="263" spans="1:22" ht="409.6">
       <c r="A263" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C263" s="46" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="264" spans="1:22" ht="360">
       <c r="A264" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C264" s="46" t="s">
         <v>423</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C264" s="46" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="266" spans="1:22">
@@ -10869,13 +10891,13 @@
     </row>
     <row r="267" spans="1:22" ht="28.8">
       <c r="A267" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>426</v>
-      </c>
-      <c r="C267" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>427</v>
       </c>
       <c r="P267" s="1"/>
       <c r="U267" s="1"/>
@@ -10883,104 +10905,104 @@
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="28.8">
       <c r="A269" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C269" s="47" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="270" spans="1:22" ht="28.8">
       <c r="A270" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>433</v>
-      </c>
       <c r="C270" s="47" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="271" spans="1:22" ht="28.8">
       <c r="A271" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B271" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="C271" s="47" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="272" spans="1:22">
       <c r="A272" s="33" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C272" s="1"/>
     </row>
     <row r="273" spans="1:4" ht="28.8">
       <c r="A273" s="2"/>
       <c r="C273" s="47" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="57.6">
       <c r="A274" s="47" t="s">
+        <v>440</v>
+      </c>
+      <c r="C274" s="47" t="s">
         <v>441</v>
-      </c>
-      <c r="C274" s="47" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C275" s="47"/>
     </row>
     <row r="276" spans="1:4" ht="30">
       <c r="A276" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C276" s="48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="60">
       <c r="A277" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C277" s="48" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="45">
       <c r="A278" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C278" s="48" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="28.8">
       <c r="A279" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C279" s="47"/>
     </row>
@@ -10994,37 +11016,37 @@
     </row>
     <row r="282" spans="1:4" ht="302.39999999999998">
       <c r="B282" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C282" s="51" t="s">
-        <v>444</v>
+        <v>427</v>
+      </c>
+      <c r="C282" s="49" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="216">
-      <c r="C283" s="51" t="s">
-        <v>443</v>
+      <c r="C283" s="49" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="374.4">
+      <c r="C285" s="49" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="374.4">
-      <c r="C285" s="51" t="s">
+      <c r="D285" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="B286" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11074,10 +11096,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="49"/>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11100,7 +11122,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P3" s="20"/>
       <c r="U3" s="20"/>
@@ -11108,7 +11130,7 @@
     </row>
     <row r="4" spans="1:22" s="19" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="29"/>
@@ -11131,48 +11153,48 @@
     </row>
     <row r="5" spans="1:22" ht="86.4">
       <c r="C5" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="244.8">
       <c r="C7" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="43.2">
       <c r="B9" s="21" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="172.8">
       <c r="B10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>208</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="32" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="244.8">
       <c r="C12" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -11228,12 +11250,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="51" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11256,10 +11278,10 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="25" t="s">
         <v>186</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>187</v>
       </c>
       <c r="P3" s="20"/>
       <c r="U3" s="20"/>
@@ -11267,7 +11289,7 @@
     </row>
     <row r="4" spans="1:22" s="19" customFormat="1">
       <c r="A4" s="26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -11290,12 +11312,12 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6CABF9-5989-4A9A-B8C3-F8668DDF3B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0668566-853F-44AB-BB49-F3BEBF1B9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
     <sheet name="Vuetify" sheetId="15" r:id="rId2"/>
     <sheet name="snippets Vue" sheetId="14" r:id="rId3"/>
+    <sheet name="download CSV" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="466">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7016,6 +7017,192 @@
         <scheme val="minor"/>
       </rPr>
       <t>vp</t>
+    </r>
+  </si>
+  <si>
+    <t>CSV downloader</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import Vue from 'vue';
+import { mapState, mapGetters } from 'vuex';
+import template from './ApiViewPfields.html';
+import { createObjectCsvStringifier } from 'csv-writer-browser';
+export default Vue.extend({
+    template,
+    name: 'ApiViewPfields',
+    components: {
+    },
+    data(){
+        return {
+            loading_state: false,
+            table: null,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            csvHeaders: [
+                    {id: 'FieldNameRu', title: 'FieldNameRu'},
+                    {id: 'FieldNm', title: 'FieldNm'},
+                    {id: 'FieldTable', title: 'FieldTable'},
+                    {id: 'FieldType', title: 'FieldType'},
+                    {id: 'NoValid', title: 'NoValid'},
+                    {id: 'RelatedCatalog', title: 'RelatedCatalog'},
+                    {id: 'RelatedCatalogKey', title: 'RelatedCatalogKey'},
+                    {id: 'StorageProcedure', title: 'StorageProcedure'},
+                    {id: 'Comment', title: 'Comment'},
+                    {id: 'SYSDATE', title: 'SYSDATE'},
+                ],
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        }
+    },</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    mounted(){
+        this.getApiViewPfields();
+    },
+    computed: {
+        ...mapState({
+            loading: state =&gt; state.user.loading
+        }),
+        fieldNames: function() {
+            return Object.keys(this.table[0]);
+        },
+    },
+    methods: {
+        async getApiViewPfields() {
+            this.loading_state = true;
+            this.$http.post('/api/manage/getApiViewPfields')
+                .then((res) =&gt; {
+                    this.table = res.body;
+                    console.log(this.table);
+                })                  
+                .finally(() =&gt; {
+                    this.loading_state = false
+                });
+        },</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        getCsv(){
+            const csvStringifier = createObjectCsvStringifier({
+              header: this.csvHeaders
+            }); 
+            const csvHeader = csvStringifier.getHeaderString();
+            const csvBody = csvStringifier.stringifyRecords(this.table);
+            const csvContent = "\uFEFF" + csvHeader + csvBody;
+            const blob = new Blob([csvContent], { type: 'text/csv;charset=utf-8;'});
+            const url = URL.createObjectURL(blob);  
+            const link = document.createElement('a');
+            link.setAttribute('href', url);
+            link.setAttribute('download', 'my_data.csv');
+            document.body.appendChild(link);
+            link.click();
+            document.body.removeChild(link);
+            URL.revokeObjectURL(url);
+        }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,
+    }
+});</t>
+    </r>
+  </si>
+  <si>
+    <t>CSV downloader.js</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div 
+    style="margin: 0px 36px"
+&gt;
+&lt;div&gt;
+    &lt;el-table
+        :data="table"
+        :default-sort = "{prop: 'FieldNameRu', order: 'descending'}"
+        style=
+        "
+        height: 80vh; 
+        overflow-y: auto;
+        text-align: left; "
+        &gt;
+        &lt;el-table-column
+            v-for="(item, index) in fieldNames"
+            :key="`${item}-${index}`"
+            :prop="item"
+            :label="$t(`${item}`)"
+            :sortable="item === `FieldNameRu` || item === `StorageProcedure`"&gt;
+        &lt;/el-table-column&gt;
+  &lt;/el-table&gt;
+&lt;/div&gt;
+    &lt;div style="margin-top: 24px; display: flex; justify-content: center;"&gt;
+        &lt;a class="btn btn-default hwc-btn-unactive" style="width:25vw" v-on:click="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>getCsv()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"&gt;
+            CSV
+        &lt;/a&gt;
+    &lt;/div&gt;
+&lt;/div&gt;</t>
     </r>
   </si>
 </sst>
@@ -7404,7 +7591,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7554,6 +7741,15 @@
     </xf>
     <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8633,7 +8829,7 @@
   </sheetPr>
   <dimension ref="A2:V286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -11327,4 +11523,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F33576-E5EF-47DE-AAF9-4DE2FAE178AB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="50"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="52" t="s">
+        <v>459</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="409.6">
+      <c r="C5" s="53" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="331.2">
+      <c r="C6" s="53" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="273.60000000000002">
+      <c r="C7" s="53" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="409.6">
+      <c r="C9" s="53" t="s">
+        <v>465</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0668566-853F-44AB-BB49-F3BEBF1B9B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFF680-491F-44A0-B7FD-97631DB690C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -23,12 +23,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="466">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7210,12 +7213,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7589,9 +7600,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7602,20 +7613,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7627,7 +7638,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7639,86 +7650,89 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7727,29 +7741,29 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8297,15 +8311,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65331</xdr:colOff>
+      <xdr:colOff>63426</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>78442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2155341</xdr:colOff>
+      <xdr:colOff>2151531</xdr:colOff>
       <xdr:row>182</xdr:row>
-      <xdr:rowOff>1165266</xdr:rowOff>
+      <xdr:rowOff>1161456</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8328,8 +8342,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2530625" y="156624618"/>
-          <a:ext cx="2086200" cy="1090634"/>
+          <a:off x="2530401" y="156698017"/>
+          <a:ext cx="2088105" cy="1083014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8341,15 +8355,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>63425</xdr:colOff>
+      <xdr:colOff>59615</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:rowOff>93456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2136499</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>1159697</xdr:rowOff>
+      <xdr:rowOff>1163507</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8372,8 +8386,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2528719" y="157913293"/>
-          <a:ext cx="2073074" cy="1077671"/>
+          <a:off x="2526590" y="157989381"/>
+          <a:ext cx="2076884" cy="1070051"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8829,8 +8843,8 @@
   </sheetPr>
   <dimension ref="A2:V286"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -10446,7 +10460,7 @@
       <c r="B185" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="37" t="s">
+      <c r="C185" s="55" t="s">
         <v>316</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -10487,9 +10501,6 @@
       <c r="A190" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="191" spans="1:22" ht="72">
       <c r="A191" s="1" t="s">
@@ -10590,7 +10601,7 @@
       </c>
     </row>
     <row r="201" spans="1:22" ht="409.6">
-      <c r="C201" s="42" t="s">
+      <c r="C201" s="55" t="s">
         <v>358</v>
       </c>
     </row>
@@ -11242,7 +11253,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11292,10 +11303,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11446,12 +11457,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11532,8 +11543,8 @@
   </sheetPr>
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11568,10 +11579,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="50"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11593,7 +11604,7 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="50" t="s">
         <v>459</v>
       </c>
       <c r="P3" s="20"/>
@@ -11601,32 +11612,32 @@
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="52" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="409.6">
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="331.2">
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="273.60000000000002">
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="409.6">
-      <c r="C9" s="53" t="s">
+      <c r="C9" s="51" t="s">
         <v>465</v>
       </c>
     </row>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CFF680-491F-44A0-B7FD-97631DB690C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23800E79-1B6A-4505-AA46-6DBEDC3E44F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
-    <sheet name="Vuetify" sheetId="15" r:id="rId2"/>
-    <sheet name="snippets Vue" sheetId="14" r:id="rId3"/>
-    <sheet name="download CSV" sheetId="16" r:id="rId4"/>
+    <sheet name="Vue Css" sheetId="17" r:id="rId2"/>
+    <sheet name="ElComponent" sheetId="18" r:id="rId3"/>
+    <sheet name="El-dialog" sheetId="19" r:id="rId4"/>
+    <sheet name="Vuetify" sheetId="15" r:id="rId5"/>
+    <sheet name="snippets Vue" sheetId="14" r:id="rId6"/>
+    <sheet name="download CSV" sheetId="16" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="485">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -6647,24 +6650,6 @@
     <t>&lt;Transition&gt; компонент</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Антимации
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Компонент &lt;Transition&gt; </t>
-    </r>
-  </si>
-  <si>
     <t>Антимации</t>
   </si>
   <si>
@@ -6908,9 +6893,6 @@
   </si>
   <si>
     <t>Больше тут</t>
-  </si>
-  <si>
-    <t>Vue css</t>
   </si>
   <si>
     <r>
@@ -7208,17 +7190,479 @@
 &lt;/div&gt;</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Анимации
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Компонент &lt;Transition&gt; </t>
+    </r>
+  </si>
+  <si>
+    <t>Vue Css</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      &lt;button 
+                              class="btn btn-xs panel-btn fa fa-lightbulb-o"
+                              v-bind:class="
+                              {
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
+                                'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
+                                'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                              }
+                              "
+                              v-on:click="changeEditorToColor"&gt;
+                      &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>`https://element.eleme.io/#/en-US/component/date-picker</t>
+  </si>
+  <si>
+    <t>ElComponent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="response_block" v-if="statusObject.responseBlock"&gt;
+            &lt;div v-if="tfaAccessChannel === 'TOTP'"&gt;
+                &lt;div class="confirm_totp_input_block text-center"&gt;
+                  &lt;i
+                    :class="responseMsg.status
+                      ? 'el-icon-success'
+                      : 'el-icon-error'"
+                    :style="{
+                      fontSize: '60px',
+                      color: responseMsg.status ? '#67C23A' : '#F56C6C'
+                    }"
+                  &gt;&lt;/i&gt;
+                  &lt;h2&gt;
+                    {{ responseMsg.status ? 'Аутентификатор подключен' : 'Ошибка' }}
+                  &lt;/h2&gt;
+                  &lt;p v-if="responseMsg.message != null"&gt;{{ responseMsg.message }}&lt;/p&gt;
+                &lt;/div&gt;
+                &lt;div slot="footer" class="select_block"&gt;
+                  &lt;el-button type="primary" @click="handleClose"&gt;
+                    Закрыть
+                  &lt;/el-button&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;
+    &lt;/el-dialog&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="otp_input_block" v-if="statusObject.newTotpInputBlock"&gt;
+            &lt;div v-if="tfaAccessChannel === 'TOTP'"&gt;
+                &lt;div class='input_block'&gt;
+                    &lt;otpInputScreen
+                        :tfaUserOtp="tfaUserOtp"
+                        :successSendOtpMessage="successSendOtp.message"
+                        :errorOtpMessage="errorOtpMessage"
+                        @nullifyErrorOtpMessage="nullifyErrorOtpMessage"
+                        @enterEvent="validateSecondFactorForNewSecretSetup()"
+                        @changeTfaUserOtp="changeTfaUserOtp"
+                    &gt;
+                    &lt;/otpInputScreen&gt;
+                &lt;/div&gt;
+                &lt;div class="select_block"&gt;
+                    &lt;span slot="footer" class="dialog-footer"&gt;
+                        &lt;el-button @click="statusSwitcher('afterOtpBlock')"&gt;Назад&lt;/el-button&gt;
+                        &lt;el-button type="primary" @click="validateSecondFactorForNewSecretSetup()"&gt;Отправить&lt;/el-button&gt;
+                    &lt;/span&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;
+    &lt;el-dialog
+        :title="tfaAccessChannel !== 'TelegramChat' ? `Подключение ${title}`: null"
+        class="totp_setting_dialog"
+        :visible.sync="dialogVisible"
+        width="35%"
+        :before-close="handleClose"
+        v-loading="loading"
+        &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="before_otp_block" v-if="statusObject.beforeOtpBlock"&gt;
+            &lt;div class='input_block'&gt;
+                &lt;span v-if="tfaAccessChannel === 'TelegramChat'"&gt;Хотите изменить номер телефона?&lt;/span&gt;
+                &lt;span v-if="tfaAccessChannel === 'TOTP'"&gt;Хотите изменить приложение-аутентификатор?&lt;/span&gt;
+            &lt;/div&gt;
+            &lt;div class="select_block"&gt;
+                &lt;span slot="footer" class="dialog-footer"&gt;
+                    &lt;el-button @click="handleClose"&gt;Нет&lt;/el-button&gt;
+                    &lt;el-button type="primary" @click="{statusSwitcher('inOtpBlock'); tfaSendOtpForUser(tfaAccessChannel)}"&gt;Да&lt;/el-button&gt;
+                &lt;/span&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>statusObject.beforeOtpBlock</t>
+  </si>
+  <si>
+    <t>statusObject.inOtpBlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="in_otp_block" v-if="statusObject.inOtpBlock"&gt;
+            &lt;div class="input_block"&gt;
+                &lt;otpInputScreen
+                    :tfaUserOtp="tfaUserOtp"
+                    :currentTimeLeft="currentTimeLeft"
+                    :timer="timer"
+                    :successSendOtpMessage="successSendOtp.message"
+                    :errorOtpMessage="errorOtpMessage"
+                    @nullifyErrorOtpMessage="nullifyErrorOtpMessage"
+                    @enterEvent="validateSecondFactor()"
+                    @changeTfaUserOtp="changeTfaUserOtp"
+                &gt;
+                &lt;/otpInputScreen&gt;
+            &lt;/div&gt;
+            &lt;div class="select_block"&gt;
+                &lt;span slot="footer" class="dialog-footer"&gt;
+                    &lt;el-button @click="handleClose"&gt;Отмена&lt;/el-button&gt;
+                    &lt;el-button type="primary" @click="validateSecondFactor()"&gt;Отправить&lt;/el-button&gt;
+                &lt;/span&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;div class="after_otp_block" v-if="statusObject.afterOtpBlock"&gt;
+            &lt;div v-if="tfaAccessChannel === 'TelegramChat'"&gt;
+                &lt;div&gt;
+                  &lt;p&gt;Корректировка данных телефона разрешена.&lt;/p&gt;                                     
+                &lt;/div&gt;
+            &lt;/div&gt;            
+            &lt;div v-if="tfaAccessChannel === 'TOTP'"&gt;
+                &lt;div class='confirm_totp_input_block'&gt;
+                    &lt;qr-code :size="200"
+                     color="#182649"
+                     :text="otpAuthUrl"&gt;&lt;/qr-code&gt;
+                    &lt;div class="text-center"&gt;Отсканируйте QR-код в приложении-аутентификаторе для синхронизации с вашей учетной записью.&lt;/div&gt;
+                    &lt;div class="text-center"&gt;После успешной синхронизации нажмите "Далее".&lt;/div&gt;
+                &lt;/div&gt;
+                &lt;div class="confirm_totp_select_block"&gt;
+                    &lt;span slot="footer" class="dialog-footer"&gt;
+                        &lt;el-button @click="handleClose"&gt;Закрыть&lt;/el-button&gt;
+                        &lt;el-button type="primary" @click="statusSwitcher('newTotpInputBlock')"&gt;Далее&lt;/el-button&gt;
+                    &lt;/span&gt;
+                &lt;/div&gt;
+            &lt;/div&gt;
+        &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>statusObject.afterOtpBlock</t>
+  </si>
+  <si>
+    <t>statusObject.responseBlock</t>
+  </si>
+  <si>
+    <t>statusObject.newTotpInputBlock</t>
+  </si>
+  <si>
+    <t>import Vue from 'vue';
+import template from './OtpInputDialog.html';
+import VueQRCodeComponent from 'vue-qrcode-component';
+import otpInputScreen from 'src/components/Login/OtpInputScreen/OtpInputScreen.js'
+import { mapState } from 'vuex';
+Vue.component('qr-code', VueQRCodeComponent);
+const speakeasy = require('speakeasy');
+export default Vue.extend({
+    template,
+    components: {
+      otpInputScreen,
+    },
+    name: 'otpInputDialog',
+    props: {
+        title: {
+            type: String,
+            default: () =&gt; 'Заголовок',
+        },
+        tfaAccessChannel: {
+            type: String,
+            default: () =&gt; '',
+        },
+        IdUser: {
+            type: String,
+            default: () =&gt; '',
+        },
+        dialogVisible: {
+            type: Boolean,
+            default: () =&gt; false,
+        },
+    },
+    mounted() {
+    },
+    data() {
+        return {
+            loading: false,
+            tfaSystemOtpHash: null,
+            tfaUserOtp: ['','','','','',''],
+            ttl: null,
+            currentTimeLeft: 59,
+            timer: 59,
+            ttlIntervalId: null,
+            otpAuthUrl: null,
+            errorOtpMessage: null,
+            statusObject: {
+                beforeOtpBlock : true,
+                inOtpBlock : false,
+                afterOtpBlock : false,
+                newTotpInputBlock: false,
+                responseBlock: false,
+            },
+            successSendOtp : { message: null },
+            newSecretFirstTime : null,
+            responseMsg: { message: null , status: null},
+        }
+    },
+    computed: {
+        ...mapState({
+            userData: state =&gt; state.user.userData,
+        }),
+        dialogVisibleComponent: {
+            get: function () {
+                let res = true;
+                if (this.dialogVisible) res = this.dialogVisible;
+                return res;
+            },
+            set: function (val) {
+                if(val === false) {
+                    this.statusSwitcher('beforeOtpBlock');
+                }  
+                this.$emit("changeDialogVisible", val);
+            },
+        },
+    },
+    methods: {
+        tfaSendOtpForUser(tfaAccessChannel){
+            this.tfaAccessChannel = tfaAccessChannel;
+            this.tfaUserOtp = ['','','','','',''];
+            if(this.tfaAccessChannel === 'TOTP') {
+                this.successSendOtp.message = 'Введите 6-значный код, указанный в приложении-аутентификаторе.';
+            } else {
+                this.loading = true;
+        	    this.$http.post('/api/auth/tfaSendOtpForUser', {
+        	    	tfaSelectedUserAccessChannel: this.tfaAccessChannel, 
+        	    	tfaUserData: this.userData,
+        	    }).then(response =&gt; {
+                    switch (response.data.otpSuccessfullySentMsg) {
+                        case 'otpSentToMail':
+                            this.successSendOtp.message = 'Введите 6-значный код, отправленный на Вашу электронную почту.'
+                            break;
+                        case 'otpSentToTelegram':
+                            this.successSendOtp.message = 'Введите 6-значный код, отправленный в Телеграм.'
+                            break;
+                        default:
+                            break;
+                    }
+                    this.tfaSystemOtpHash = response.data.tfaSystemOtpHash;
+                    this.ttl = (Date.now()/1000).floor() + this.timer;
+                    this.ttlIntervalId = setInterval(()=&gt;{
+                        this.currentTimeLeft = this.ttl - (Date.now()/1000).floor(1);
+                        if(this.currentTimeLeft &lt; 0) {
+                            clearInterval(this.ttlIntervalId);
+                            this.currentTimeLeft = this.timer;
+                            this.errorOtpMessage = 'В отведённый временной интервал не был получен 6-значный код.'
+                            setTimeout(()=&gt;{
+                                this.handleClose();
+                            }, 2000)
+                        }
+                    }, 100);
+                })
+                .catch(err =&gt; {
+                    let message = 'Сервис недоступен.';
+                    // switch (err.status) {
+                    //   case 503:
+                    //     message = 'Сбой двухфакторной авторизации.';
+                    //     break;
+                    //   default:
+                    //     message = this.$t('loginError');
+                    //     break;
+                    // }
+                    this.errorOtpMessage = message;
+                });
+            }
+            this.loading = false;
+        },
+        validateSecondFactor() {
+            if(this.currentTimeLeft &gt;= 0) {
+                this.loading = true;
+                this.$http.post('/api/auth/validateSecondFactor', {
+                    tfaSelectedUserAccessChannel: this.tfaAccessChannel,
+                    tfaUserOtp: this.tfaUserOtp.join(""), 
+                    tfaSystemOtpHash: this.tfaSystemOtpHash,
+                    tfaUserId: this.userData.IdUser,
+                })
+                .then(response =&gt; {
+                    this.loading = false;
+                    switch (this.tfaAccessChannel) {
+                        case 'TelegramChat':
+                            this.$emit('changeAccessToChangePhoneGranted', true);
+                            break;
+                        case 'TOTP':
+                            this.newSecretFirstTime = speakeasy.generateSecret({name: "Headway LK"});
+                            this.otpAuthUrl = this.newSecretFirstTime.otpauth_url;
+                            this.tfaUserOtp = ['','','','','',''];
+                            this.successSendOtp.message = 'Введите 6-значный код, указанный в приложении-аутентификаторе.';
+                            break;
+                        default:
+                            break;
+                    }
+                    this.statusSwitcher('afterOtpBlock');
+                })
+                .catch(err =&gt; {
+                    this.loading = false;
+                    let message = 'Сервис недоступен.';
+                    switch (err.status) { 
+                        case 503:
+                            message = 'Сбой двухфакторной аутентификации.';
+                            break;
+                        default:
+                            message = 'Введён недействительный 6-значный код. Попробуйте ещё раз.'
+                            break;
+                    }
+                    this.tfaUserOtp = ['','','','','',''];
+                    this.errorOtpMessage = message;
+                })
+            } 
+        },
+        validateSecondFactorForNewSecretSetup() {
+            let tfaSuccessfullyVerified = speakeasy.totp.verify({ 
+                secret: this.newSecretFirstTime.ascii, //'L7,ucxq, r&amp;RdN9LBh2IT5k4PCSZOFZAo', 
+                encoding: 'ascii', 
+                token: this.tfaUserOtp.join(""), //'102511'
+            });
+            if (tfaSuccessfullyVerified){
+              this.loading = true;
+              this.$http.post('/api/user/updateTotpSecret',{ 
+                IdUser: this.IdUser,
+                secret: this.newSecretFirstTime,
+              })
+                .then((response) =&gt; {
+                  this.loading = false;
+                  this.responseMsg.message = 'Синхронизация с вашим приложением успешно установлена.';
+                  this.responseMsg.status = true;
+                })
+                .catch((err) =&gt; {
+                  this.loading = false;
+                  this.responseMsg.message = 'К сожалению, в данный момент установка нового секретного ключа недоступна.';
+                  this.responseMsg.status = false;
+                })
+                .finally(()=&gt;this.statusSwitcher('responseBlock'))
+            } else {
+                this.tfaUserOtp = ['','','','','',''];
+                this.errorOtpMessage = 'Введён недействительный 6-значный код. Попробуйте ещё раз.';
+            }
+        },
+        changeTfaUserOtp(val) {
+            this.tfaUserOtp = val;
+        },
+        nullifyErrorOtpMessage() {
+            this.errorOtpMessage = null;
+        },
+        statusSwitcher(statusSelected){
+            this.statusObject = Object.map(this.statusObject, function(value, key) {
+                return key === statusSelected ? true : false
+            })
+        },
+        handleClose() {
+            clearInterval(this.ttlIntervalId);
+            this.tfaUserOtp = ['','','','','',''];
+            this.currentTimeLeft = this.timer;
+            this.errorOtpMessage = null;
+            this.dialogVisibleComponent = false;
+        },
+    },
+    watch: {
+    }
+});</t>
+  </si>
+  <si>
+    <t>Переключение между окнами диалога
+            statusObject: {
+                beforeOtpBlock : true,
+                inOtpBlock : false,
+                afterOtpBlock : false,
+                newTotpInputBlock: false,
+                responseBlock: false,
+            },
+        statusSwitcher(statusSelected){
+            this.statusObject = Object.map(this.statusObject, function(value, key) {
+                return key === statusSelected ? true : false
+            })
+        },</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>html</t>
+  </si>
+  <si>
+    <t>El-dialog</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7600,9 +8044,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -7613,20 +8057,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7638,7 +8082,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -7650,60 +8094,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7711,7 +8164,7 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7720,8 +8173,8 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7729,41 +8182,53 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8841,10 +9306,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V286"/>
+  <dimension ref="A2:V283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D185" sqref="D185"/>
+    <sheetView topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -8923,7 +9388,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -10460,7 +10925,7 @@
       <c r="B185" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="55" t="s">
+      <c r="C185" s="53" t="s">
         <v>316</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -10601,7 +11066,7 @@
       </c>
     </row>
     <row r="201" spans="1:22" ht="409.6">
-      <c r="C201" s="55" t="s">
+      <c r="C201" s="53" t="s">
         <v>358</v>
       </c>
     </row>
@@ -11101,7 +11566,7 @@
         <v>425</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>426</v>
@@ -11112,7 +11577,7 @@
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="269" spans="1:22" ht="28.8">
@@ -11154,106 +11619,88 @@
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:4" ht="28.8">
+    <row r="273" spans="1:3" ht="28.8">
       <c r="A273" s="2"/>
       <c r="C273" s="47" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="57.6">
+    <row r="274" spans="1:3" ht="57.6">
       <c r="A274" s="47" t="s">
+        <v>439</v>
+      </c>
+      <c r="C274" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="C274" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4">
+    </row>
+    <row r="275" spans="1:3">
       <c r="A275" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C275" s="47"/>
+    </row>
+    <row r="276" spans="1:3" ht="30">
+      <c r="A276" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C276" s="48" t="s">
         <v>444</v>
       </c>
-      <c r="B275" s="2" t="s">
+    </row>
+    <row r="277" spans="1:3" ht="60">
+      <c r="A277" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C277" s="48" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="45">
+      <c r="A278" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C278" s="48" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="28.8">
+      <c r="A279" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C275" s="47"/>
-    </row>
-    <row r="276" spans="1:4" ht="30">
-      <c r="A276" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C276" s="48" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="60">
-      <c r="A277" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C277" s="48" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" ht="45">
-      <c r="A278" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C278" s="48" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" ht="28.8">
-      <c r="A279" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="C279" s="47"/>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:3">
       <c r="A280" s="2"/>
       <c r="C280" s="47"/>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:3">
       <c r="A281" s="2"/>
       <c r="C281" s="47"/>
     </row>
-    <row r="282" spans="1:4" ht="302.39999999999998">
+    <row r="282" spans="1:3" ht="302.39999999999998">
       <c r="B282" s="2" t="s">
         <v>427</v>
       </c>
       <c r="C282" s="49" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="216">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="216">
       <c r="C283" s="49" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" ht="374.4">
-      <c r="C285" s="49" t="s">
-        <v>456</v>
-      </c>
-      <c r="D285" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4">
-      <c r="B286" s="2" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="17" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11261,6 +11708,373 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF32088-FDD0-46A0-946F-1A7398394841}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" s="19" customFormat="1">
+      <c r="A4" s="56" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" ht="374.4">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="49" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="158.4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="54" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10679322-B66C-4A2A-BA00-35BB5CDCF52D}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB89C57B-4415-4E7B-A67D-1BB77B7555B3}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="59" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" s="60"/>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="62" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="129.6">
+      <c r="C5" s="61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="216">
+      <c r="A6" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="316.8">
+      <c r="A7" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="360">
+      <c r="A8" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="331.2">
+      <c r="A9" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="374.4">
+      <c r="A10" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="62" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="409.6">
+      <c r="B12" s="61" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA43F35-896E-4AF4-9490-A6E7A4167F76}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11303,10 +12117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11413,10 +12227,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28329730-A06B-4EF9-BB9C-FF8DE4151289}">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:V6"/>
@@ -11457,12 +12270,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11536,7 +12349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F33576-E5EF-47DE-AAF9-4DE2FAE178AB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -11579,10 +12392,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="53"/>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11605,7 +12418,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="C3" s="50" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="P3" s="20"/>
       <c r="U3" s="20"/>
@@ -11613,32 +12426,32 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="52" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="409.6">
       <c r="C5" s="51" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="331.2">
       <c r="C6" s="51" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="273.60000000000002">
       <c r="C7" s="51" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" s="52" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="409.6">
       <c r="C9" s="51" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23800E79-1B6A-4505-AA46-6DBEDC3E44F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D310908-9A55-4616-8654-437D3C04E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13875" yWindow="-21720" windowWidth="51840" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
     <sheet name="Vue Css" sheetId="17" r:id="rId2"/>
-    <sheet name="ElComponent" sheetId="18" r:id="rId3"/>
-    <sheet name="El-dialog" sheetId="19" r:id="rId4"/>
-    <sheet name="Vuetify" sheetId="15" r:id="rId5"/>
-    <sheet name="snippets Vue" sheetId="14" r:id="rId6"/>
-    <sheet name="download CSV" sheetId="16" r:id="rId7"/>
+    <sheet name="URL to login after REMOTE auth" sheetId="20" r:id="rId3"/>
+    <sheet name="ElComponent" sheetId="18" r:id="rId4"/>
+    <sheet name="El-dialog" sheetId="19" r:id="rId5"/>
+    <sheet name="Vuetify" sheetId="15" r:id="rId6"/>
+    <sheet name="snippets Vue" sheetId="14" r:id="rId7"/>
+    <sheet name="download CSV" sheetId="16" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="494">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7636,17 +7637,170 @@
   <si>
     <t>El-dialog</t>
   </si>
+  <si>
+    <t>Вход в SPA после авторизации на стороннем сайте</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      loginWithJwtFromAnotherWebsite(){
+        let jwt = this.$route.query.jwt;
+        this.$http.post('/api/auth/getUserData', {access_token:jwt})
+          .then(response =&gt; {
+            asyncLocalStorageLk.setItem('token', JSON.stringify(response.data))
+        	    .then(() =&gt; {
+        	    	Store.commit('user/setToken', {access_token:jwt});
+        	    	this.getHttpDict();
+        	    	this.getUserData();
+        	    	this.$router.push('/');
+        	  });
+          })
+          .catch(err =&gt; {
+            console.log(`Ответ: ${err}`);
+          });
+      },</t>
+  </si>
+  <si>
+    <t>methods:</t>
+  </si>
+  <si>
+    <t>beforeMount(){}</t>
+  </si>
+  <si>
+    <t>if(this.$route.name === 'loginsite') this.loginWithJwtFromAnotherWebsite();</t>
+  </si>
+  <si>
+    <t>routes.js</t>
+  </si>
+  <si>
+    <t>const routes = [
+  {
+    path: '/',
+    name: 'home',
+    component: () =&gt; import ('src/components/Home/home'),//Home,
+    panel: 'Рабочая панель'
+  },
+  // {
+  //   path: '/analitic/:path',
+  //   name: 'Analitic',
+  //   component: () =&gt; import ('src/components/Analitic/Analitic'),//Analitic,
+  //   panel: 'Аналитика'
+  // },
+  {
+    path: '/base/:path',
+    name: 'base',
+    component: () =&gt; import ('src/components/Bases/Bases'),//Bases,
+    panel: 'Базы'
+  },
+  {
+    path: '/manual',
+    name: 'manual',
+    component: () =&gt; import ('src/components/Manage/Help/Help'),//Help,
+    panel: 'Помощь'
+  },
+  {
+    path: '/manual/:dict',
+    name: 'manual',
+    component: () =&gt; import ('src/components/Manage/Help/Help'),//Help,
+    panel: 'Помощь'
+  },
+  {
+    path: '/calendar/:path',
+    name: 'calendar',
+    component: () =&gt; import ('src/components/Calendar/Calendar'),//Calendar,
+    panel: 'Календарь'
+  },
+  {
+    path: '/journal',
+    name: 'journal',
+    component: () =&gt; import ('src/components/Journal/Journal'),//Journal,
+    panel: 'Журнал'
+  },
+  {
+    path: '/manage/:path',
+    name: 'manage',
+    component: () =&gt; import ('src/components/Manage/Manage'),//Manage,
+    panel: 'Управление'
+  },
+  {
+    path: '/manage/:path/app/:appid',
+    name: 'manage',
+    component: () =&gt; import ('src/components/Manage/Manage'),//Manage,
+    panel: 'Управление'
+  },
+  {
+    path: '/profile',
+    name: 'profile',
+    component: () =&gt; import ('src/components/Profile/profile'),//Profile
+  },
+  {
+    path: '/files',
+    name: 'files',
+    component: () =&gt; import ('src/components/Files/Files'),//Files
+  },
+  {
+    path: '/hwcbi',
+    name: 'hwcbi',
+    component: () =&gt; import ('src/components/HWCBI/HWCBI.js'),//Files
+  },
+  {
+    path: '/lined/:base/:id',
+    name: 'linedview',
+    component: () =&gt; import ('src/components/LinedView/LinedView'),//LinedView
+  },
+  {
+    path: '/linedanalitic/:id',
+    name: 'linedanalitic',
+    component: () =&gt; import ('src/components/LinedAnalitic/LinedAnalitic'),//LinedAnalitic
+  },
+  {
+    path: '/login/:type/:key',
+    name: 'login',
+  },
+  {
+    path: '/loginsite/',
+    name: 'loginsite',
+  },
+  {
+    path: '*',
+    name: 'notfound',
+    component: () =&gt; import ('components/NotFound/notFound'), //NotFound,
+    panel: 'Страница не найдена'
+  }
+];
+export default routes;</t>
+  </si>
+  <si>
+    <t>https://test.hwcompany.ru/loginsite?jwt={$access_token}</t>
+  </si>
+  <si>
+    <t>Результат должен быть</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7940,6 +8094,14 @@
       <color rgb="FF213547"/>
       <name val="Var(--vt-font-family-mono)"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -8042,11 +8204,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8057,20 +8220,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8082,7 +8245,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8094,60 +8257,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8155,7 +8327,7 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8164,8 +8336,8 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="31" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8173,38 +8345,47 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8212,26 +8393,30 @@
     <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
   </cellStyles>
@@ -11700,7 +11885,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11715,8 +11900,8 @@
   </sheetPr>
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -11751,10 +11936,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11838,6 +12023,169 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D825E87-AA95-4E22-841B-0301C795364F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:V8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="36" style="20" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="22"/>
+    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="U2" s="24"/>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="C3" s="61" t="s">
+        <v>485</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" s="19" customFormat="1">
+      <c r="A4" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="30"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="20"/>
+    </row>
+    <row r="5" spans="1:22" s="19" customFormat="1">
+      <c r="A5" s="68" t="s">
+        <v>493</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="69" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="20"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="230.4">
+      <c r="A7" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="409.6">
+      <c r="A8" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{984FD18E-33B2-4540-A010-FE3C4F5272D7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10679322-B66C-4A2A-BA00-35BB5CDCF52D}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -11881,10 +12229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11906,10 +12254,10 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="58" t="s">
         <v>467</v>
       </c>
       <c r="P3" s="20"/>
@@ -11925,7 +12273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB89C57B-4415-4E7B-A67D-1BB77B7555B3}">
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
@@ -11933,7 +12281,7 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -11969,10 +12317,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -11994,74 +12342,74 @@
       <c r="U2" s="24"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="D3" s="60"/>
+      <c r="D3" s="58"/>
       <c r="P3" s="20"/>
       <c r="U3" s="20"/>
       <c r="V3" s="21"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="60" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="129.6">
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="59" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="216">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="58" t="s">
         <v>473</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="59" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="316.8">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="59" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="360">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="58" t="s">
         <v>477</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="59" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="331.2">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="58" t="s">
         <v>479</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="59" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="374.4">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="58" t="s">
         <v>478</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="59" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="60" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.6">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="59" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="59" t="s">
         <v>480</v>
       </c>
     </row>
@@ -12074,7 +12422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA43F35-896E-4AF4-9490-A6E7A4167F76}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12117,10 +12465,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -12227,7 +12575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28329730-A06B-4EF9-BB9C-FF8DE4151289}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12270,12 +12618,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>
@@ -12349,7 +12697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5F33576-E5EF-47DE-AAF9-4DE2FAE178AB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -12392,10 +12740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="23"/>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D310908-9A55-4616-8654-437D3C04E031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F180E0-0AA0-4CEF-BBBA-ECA73963BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -27,15 +27,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="500">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -6897,99 +6894,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                &lt;el-button
-                    style="
-                        box-sizing: border-box;
-                        width: calc(100% / 3);
-                        margin-right: 0px;
-                        margin-left: 0px;
-                    "
-                    type="button"
-                    size="mini"
-                    class="btn el-filter-icon fa fa-align-justify"
-                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                    v-on:click="addColorFormatting"
-                &gt;
-                &lt;/el-button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">data() {
-        return {
-            valueTypesDict: {
-                maxbydefault: "Максимальное значение",
-                minbydefault: "Минимальное значение",
-                number: "Число",
-                percent: "Процент",
-                percentile: "Процентиль",
-            },
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">            activeStyleColor: {
-                backgroundColor: "#409EFF",
-                borderColor: "#409EFF",
-                color: "#fff",
-            },
-            activeStyleHistogram: {
-                backgroundColor: "#9C9E21",
-                borderColor: "#9C9E21",
-                color: "#fff",
-            },
-            activeStyleIcon: {
-                backgroundColor: "#AD3131",
-                borderColor: "#AD3131",
-                color: "#fff",
-            },
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">        };
-    },</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">vue create </t>
     </r>
     <r>
@@ -7211,44 +7115,6 @@
   </si>
   <si>
     <t>Vue Css</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      &lt;button 
-                              class="btn btn-xs panel-btn fa fa-lightbulb-o"
-                              v-bind:class="
-                              {
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
-                                'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
-                                'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                              }
-                              "
-                              v-on:click="changeEditorToColor"&gt;
-                      &lt;/button&gt;</t>
-    </r>
   </si>
   <si>
     <t>`https://element.eleme.io/#/en-US/component/date-picker</t>
@@ -7774,17 +7640,261 @@
   <si>
     <t>Результат должен быть</t>
   </si>
+  <si>
+    <t>Вариант 3</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;el-button
+                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                &gt;
+                &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">data() {
+        return {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">            activeStyleColor: {
+                backgroundColor: "#409EFF",
+                borderColor: "#409EFF",
+                color: "#fff",
+            },
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">        };
+    },</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;el-button
+                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="{backgroundColor: "#409EFF",}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                &gt;
+                &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                &lt;el-button
+                   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="{backgroundColor: item.length === 0 ? "#409EFF" : "#FFF",}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                &gt;
+                &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      &lt;button 
+                              v-bind:class="
+                              {
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
+                                'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
+                                'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                              }
+                              "
+                      &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      &lt;button 
+                              v-bind:class="
+                              [
+                                </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'custom_class_1',
+                                {'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}, 
+                                'custom_class_2'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                              ]
+                              "
+                      &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      &lt;button 
+                              v-bind:class=" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+                      &lt;/button&gt;</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8206,10 +8316,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8220,20 +8330,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8245,7 +8355,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8254,89 +8364,83 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="34" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="34" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8345,37 +8449,49 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8384,40 +8500,25 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9497,35 +9598,35 @@
       <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.88671875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.88671875" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" style="8"/>
-    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.08984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.90625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.90625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6328125" style="8"/>
+    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6328125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -9573,7 +9674,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -9582,12 +9683,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="28.8">
+    <row r="7" spans="1:22" ht="29">
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="100.8">
+    <row r="8" spans="1:22" ht="101.5">
       <c r="B8" s="2" t="s">
         <v>216</v>
       </c>
@@ -9631,7 +9732,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="28.8">
+    <row r="12" spans="1:22" ht="29">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -9642,7 +9743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="28.8">
+    <row r="13" spans="1:22" ht="29">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -9650,7 +9751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="28.8">
+    <row r="14" spans="1:22" ht="29">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -9658,7 +9759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="28.8">
+    <row r="15" spans="1:22" ht="29">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -9666,7 +9767,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="28.8">
+    <row r="16" spans="1:22" ht="29">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -9680,7 +9781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="100.8">
+    <row r="17" spans="1:22" ht="101.5">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -9691,7 +9792,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="28.8">
+    <row r="18" spans="1:22" ht="29">
       <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
@@ -9702,7 +9803,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="100.8">
+    <row r="19" spans="1:22" ht="101.5">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -9710,7 +9811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="100.8">
+    <row r="20" spans="1:22" ht="101.5">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -9748,7 +9849,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="28.8">
+    <row r="24" spans="1:22" ht="29">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -9764,7 +9865,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="57.6">
+    <row r="26" spans="1:22" ht="58">
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
@@ -9772,7 +9873,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="28.8">
+    <row r="27" spans="1:22" ht="29">
       <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
@@ -9785,7 +9886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="72">
+    <row r="29" spans="1:22" ht="72.5">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -9801,7 +9902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="129.6">
+    <row r="31" spans="1:22" ht="130.5">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -9812,7 +9913,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="57.6">
+    <row r="32" spans="1:22" ht="58">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -9823,7 +9924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="115.2">
+    <row r="33" spans="1:4" ht="116">
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
@@ -9831,7 +9932,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="115.2">
+    <row r="34" spans="1:4" ht="116">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -9845,7 +9946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72">
+    <row r="35" spans="1:4" ht="72.5">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -9856,7 +9957,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="115.2">
+    <row r="36" spans="1:4" ht="116">
       <c r="C36" s="13" t="s">
         <v>63</v>
       </c>
@@ -9873,15 +9974,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.2">
-      <c r="B38" s="18" t="s">
+    <row r="38" spans="1:4" ht="43.5">
+      <c r="B38" s="17" t="s">
         <v>190</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="187.2">
+    <row r="39" spans="1:4" ht="188.5">
       <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
@@ -9889,7 +9990,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="28.8">
+    <row r="40" spans="1:4" ht="29">
       <c r="C40" s="13" t="s">
         <v>117</v>
       </c>
@@ -9907,7 +10008,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="28.8">
+    <row r="43" spans="1:4" ht="29">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
@@ -9915,12 +10016,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="28.8">
+    <row r="44" spans="1:4" ht="29">
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="28.8">
+    <row r="45" spans="1:4" ht="29">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
@@ -9938,7 +10039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="86.4">
+    <row r="48" spans="1:4" ht="87">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -9957,8 +10058,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="216">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:22" ht="217.5">
+      <c r="A50" s="17" t="s">
         <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -9974,7 +10075,7 @@
       </c>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="86.4">
+    <row r="52" spans="1:22" ht="87">
       <c r="A52" s="2" t="s">
         <v>179</v>
       </c>
@@ -9985,7 +10086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.2">
+    <row r="53" spans="1:22" ht="43.5">
       <c r="C53" s="13" t="s">
         <v>67</v>
       </c>
@@ -10030,7 +10131,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="28.8">
+    <row r="62" spans="1:22" ht="29">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -10044,7 +10145,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="57.6">
+    <row r="63" spans="1:22" ht="58">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -10055,7 +10156,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="28.8">
+    <row r="64" spans="1:22" ht="29">
       <c r="A64" s="13" t="s">
         <v>98</v>
       </c>
@@ -10067,7 +10168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="28.8">
+    <row r="65" spans="1:22" ht="29">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10084,7 +10185,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="72">
+    <row r="67" spans="1:22" ht="72.5">
       <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
@@ -10092,12 +10193,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="144">
+    <row r="68" spans="1:22" ht="145">
       <c r="C68" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="115.2">
+    <row r="69" spans="1:22" ht="116">
       <c r="C69" s="13" t="s">
         <v>95</v>
       </c>
@@ -10110,7 +10211,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.2">
+    <row r="71" spans="1:22" ht="43.5">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -10121,7 +10222,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="28.8">
+    <row r="72" spans="1:22" ht="29">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -10130,7 +10231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="129.6">
+    <row r="73" spans="1:22" ht="130.5">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -10141,7 +10242,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="100.8">
+    <row r="74" spans="1:22" ht="101.5">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -10152,7 +10253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="72">
+    <row r="75" spans="1:22" ht="72.5">
       <c r="B75" s="2" t="s">
         <v>109</v>
       </c>
@@ -10206,7 +10307,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="409.6">
+    <row r="80" spans="1:22" ht="409.5">
       <c r="C80" s="2" t="s">
         <v>146</v>
       </c>
@@ -10225,7 +10326,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" ht="86.4">
+    <row r="82" spans="1:22" ht="87">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -10236,7 +10337,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" ht="43.2">
+    <row r="83" spans="1:22" ht="43.5">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -10256,7 +10357,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="28.8">
+    <row r="85" spans="1:22" ht="29">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -10267,7 +10368,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="28.8">
+    <row r="86" spans="1:22" ht="29">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -10278,7 +10379,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="158.4">
+    <row r="87" spans="1:22" ht="159.5">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -10298,7 +10399,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" ht="28.8">
+    <row r="89" spans="1:22" ht="29">
       <c r="A89" s="1" t="s">
         <v>137</v>
       </c>
@@ -10312,7 +10413,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" ht="28.8">
+    <row r="90" spans="1:22" ht="29">
       <c r="A90" s="1" t="s">
         <v>139</v>
       </c>
@@ -10334,7 +10435,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" ht="28.8">
+    <row r="92" spans="1:22" ht="29">
       <c r="A92" s="1" t="s">
         <v>144</v>
       </c>
@@ -10345,21 +10446,21 @@
       <c r="U92" s="1"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" ht="86.4">
+    <row r="93" spans="1:22" ht="87">
       <c r="B93" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D93" s="16" t="s">
+      <c r="D93" s="1" t="s">
         <v>159</v>
       </c>
       <c r="P93" s="1"/>
       <c r="U93" s="1"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="28.8">
+    <row r="94" spans="1:22" ht="29">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -10370,15 +10471,15 @@
       <c r="U94" s="1"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" ht="28.8">
-      <c r="C95" s="17" t="s">
+    <row r="95" spans="1:22" ht="29">
+      <c r="C95" s="16" t="s">
         <v>162</v>
       </c>
       <c r="P95" s="1"/>
       <c r="U95" s="1"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" ht="374.4">
+    <row r="96" spans="1:22" ht="377">
       <c r="A96" s="2" t="s">
         <v>169</v>
       </c>
@@ -10392,7 +10493,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" ht="409.6">
+    <row r="97" spans="1:22" ht="409.5">
       <c r="B97" s="2" t="s">
         <v>164</v>
       </c>
@@ -10403,7 +10504,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" ht="409.6">
+    <row r="98" spans="1:22" ht="409.5">
       <c r="B98" s="2" t="s">
         <v>166</v>
       </c>
@@ -10425,7 +10526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="28.8">
+    <row r="101" spans="1:22" ht="29">
       <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
@@ -10468,7 +10569,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="43.2">
+    <row r="105" spans="1:22" ht="43.5">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -10479,27 +10580,27 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="28.8">
+    <row r="106" spans="1:22" ht="29">
       <c r="A106" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="17" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="57.6">
+    <row r="107" spans="1:22" ht="58">
       <c r="A107" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="C107" s="17" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="115.2">
+    <row r="108" spans="1:22" ht="116">
       <c r="B108" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="17" t="s">
         <v>232</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -10514,61 +10615,61 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="57.6">
-      <c r="A113" s="18" t="s">
+    <row r="113" spans="1:4" ht="58">
+      <c r="A113" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="C113" s="18" t="s">
+      <c r="C113" s="17" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="72">
-      <c r="A114" s="18"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="18" t="s">
+    <row r="114" spans="1:4" ht="72.5">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="28.8">
+    <row r="115" spans="1:4" ht="29">
       <c r="B115" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C115" s="18" t="s">
+      <c r="C115" s="17" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="43.2">
+    <row r="116" spans="1:4" ht="43.5">
       <c r="B116" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C116" s="18" t="s">
+      <c r="C116" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="259.2">
+    <row r="117" spans="1:4" ht="261">
       <c r="B117" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C117" s="18" t="s">
+      <c r="C117" s="17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="28.8">
+    <row r="118" spans="1:4" ht="29">
       <c r="B118" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="216">
+    <row r="119" spans="1:4" ht="217.5">
       <c r="B119" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="17" t="s">
         <v>220</v>
       </c>
     </row>
@@ -10577,32 +10678,32 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="409.6">
+    <row r="121" spans="1:4" ht="409.5">
       <c r="B121" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C121" s="18" t="s">
+      <c r="C121" s="17" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="72">
-      <c r="A122" s="33" t="s">
+    <row r="122" spans="1:4" ht="72.5">
+      <c r="A122" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="374.4">
-      <c r="C123" s="18" t="s">
+    <row r="123" spans="1:4" ht="377">
+      <c r="C123" s="17" t="s">
         <v>224</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="331.2">
-      <c r="C124" s="18" t="s">
+    <row r="124" spans="1:4" ht="333.5">
+      <c r="C124" s="17" t="s">
         <v>227</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -10617,14 +10718,14 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="115.2">
-      <c r="A126" s="18" t="s">
+    <row r="126" spans="1:4" ht="116">
+      <c r="A126" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="17" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10636,18 +10737,18 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="158.4">
+    <row r="128" spans="1:4" ht="159.5">
       <c r="B128" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C128" s="18" t="s">
+      <c r="C128" s="17" t="s">
         <v>213</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="144">
+    <row r="129" spans="1:22" ht="145">
       <c r="D129" s="2" t="s">
         <v>215</v>
       </c>
@@ -10687,25 +10788,25 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="57.6">
+    <row r="135" spans="1:22" ht="58">
       <c r="A135" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B135" s="17" t="s">
+      <c r="B135" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C135" s="18" t="s">
+      <c r="C135" s="17" t="s">
         <v>196</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="144">
+    <row r="136" spans="1:22" ht="145">
       <c r="A136" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B136" s="18" t="s">
+      <c r="B136" s="17" t="s">
         <v>291</v>
       </c>
       <c r="C136" s="2" t="s">
@@ -10716,19 +10817,19 @@
       </c>
     </row>
     <row r="137" spans="1:22">
-      <c r="C137" s="18"/>
+      <c r="C137" s="17"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="C138" s="18"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139" spans="1:22">
-      <c r="C139" s="18"/>
+      <c r="C139" s="17"/>
     </row>
     <row r="140" spans="1:22">
-      <c r="C140" s="18"/>
+      <c r="C140" s="17"/>
     </row>
     <row r="141" spans="1:22">
-      <c r="C141" s="18"/>
+      <c r="C141" s="17"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="3"/>
@@ -10768,11 +10869,11 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="158.4">
+    <row r="145" spans="1:4" ht="145">
       <c r="B145" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>237</v>
       </c>
     </row>
@@ -10788,11 +10889,11 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="72">
+    <row r="148" spans="1:4" ht="72.5">
       <c r="B148" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="17" t="s">
         <v>248</v>
       </c>
     </row>
@@ -10803,34 +10904,34 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="187.2">
-      <c r="A150" s="36"/>
+    <row r="150" spans="1:4" ht="188.5">
+      <c r="A150" s="33"/>
       <c r="B150" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C150" s="36" t="s">
+      <c r="C150" s="33" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="57.6">
+    <row r="151" spans="1:4" ht="58">
       <c r="A151" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="17" t="s">
         <v>278</v>
       </c>
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="216">
+    <row r="152" spans="1:4" ht="217.5">
       <c r="A152" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C152" s="36" t="s">
+      <c r="C152" s="33" t="s">
         <v>300</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>283</v>
       </c>
     </row>
@@ -10841,48 +10942,47 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="144">
-      <c r="A154" s="16"/>
+    <row r="154" spans="1:4" ht="145">
       <c r="B154" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="17" t="s">
         <v>270</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="230.4">
+    <row r="155" spans="1:4" ht="232">
       <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="144">
+    <row r="156" spans="1:4" ht="145">
       <c r="A156" s="1" t="s">
         <v>272</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C156" s="18" t="s">
+      <c r="C156" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="17" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="43.2">
+    <row r="157" spans="1:4" ht="43.5">
       <c r="B157" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C157" s="18" t="s">
+      <c r="C157" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D157" s="18"/>
+      <c r="D157" s="17"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -10894,36 +10994,36 @@
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="244.8">
+    <row r="159" spans="1:4" ht="246.5">
       <c r="B159" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C159" s="18" t="s">
+      <c r="C159" s="17" t="s">
         <v>252</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="331.2">
+    <row r="160" spans="1:4" ht="333.5">
       <c r="A160" s="1" t="s">
         <v>295</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C160" s="18" t="s">
+      <c r="C160" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="115.2">
+    <row r="161" spans="1:22" ht="116">
       <c r="A161" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C161" s="18" t="s">
+      <c r="C161" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="17" t="s">
         <v>297</v>
       </c>
     </row>
@@ -10934,21 +11034,21 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:22" ht="172.8">
+    <row r="163" spans="1:22" ht="174">
       <c r="B163" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="17" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="34" t="s">
+      <c r="A164" s="31" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="43.2">
-      <c r="C165" s="18" t="s">
+    <row r="165" spans="1:22" ht="43.5">
+      <c r="C165" s="17" t="s">
         <v>254</v>
       </c>
     </row>
@@ -10956,49 +11056,49 @@
       <c r="A166" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C166" s="35" t="s">
+      <c r="C166" s="32" t="s">
         <v>266</v>
       </c>
       <c r="D166" s="10" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="144">
+    <row r="167" spans="1:22" ht="145">
       <c r="A167" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="18" t="s">
+      <c r="B167" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="C167" s="18" t="s">
+      <c r="C167" s="17" t="s">
         <v>260</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="409.6">
+    <row r="168" spans="1:22" ht="409.5">
       <c r="A168" s="2" t="s">
         <v>256</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C168" s="18" t="s">
+      <c r="C168" s="17" t="s">
         <v>257</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="409.6">
-      <c r="A169" s="18" t="s">
+    <row r="169" spans="1:22" ht="409.5">
+      <c r="A169" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="17" t="s">
         <v>264</v>
       </c>
     </row>
@@ -11078,39 +11178,39 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="100.8">
+    <row r="183" spans="1:22" ht="101.5">
       <c r="A183" s="1" t="s">
         <v>309</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C183" s="37" t="s">
+      <c r="C183" s="34" t="s">
         <v>310</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="100.8">
+    <row r="184" spans="1:22" ht="101.5">
       <c r="A184" s="1" t="s">
         <v>312</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="37" t="s">
+      <c r="C184" s="34" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="129.6">
+    <row r="185" spans="1:22" ht="130.5">
       <c r="A185" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C185" s="53" t="s">
+      <c r="C185" s="50" t="s">
         <v>316</v>
       </c>
       <c r="D185" s="1" t="s">
@@ -11152,25 +11252,25 @@
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="72">
+    <row r="191" spans="1:22" ht="72.5">
       <c r="A191" s="1" t="s">
         <v>319</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C191" s="37" t="s">
+      <c r="C191" s="34" t="s">
         <v>320</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="259.2">
+    <row r="192" spans="1:22" ht="261">
       <c r="B192" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C192" s="37" t="s">
+      <c r="C192" s="34" t="s">
         <v>323</v>
       </c>
       <c r="D192" s="1" t="s">
@@ -11216,10 +11316,10 @@
       </c>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="38" t="s">
+      <c r="A197" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="C197" s="39" t="s">
+      <c r="C197" s="36" t="s">
         <v>332</v>
       </c>
       <c r="D197" s="1" t="s">
@@ -11230,7 +11330,7 @@
       <c r="A198" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C198" s="39" t="s">
+      <c r="C198" s="36" t="s">
         <v>334</v>
       </c>
     </row>
@@ -11238,7 +11338,7 @@
       <c r="A199" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C199" s="39" t="s">
+      <c r="C199" s="36" t="s">
         <v>335</v>
       </c>
     </row>
@@ -11250,8 +11350,8 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="409.6">
-      <c r="C201" s="53" t="s">
+    <row r="201" spans="1:22" ht="409.5">
+      <c r="C201" s="50" t="s">
         <v>358</v>
       </c>
     </row>
@@ -11260,11 +11360,11 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="115.2">
+    <row r="203" spans="1:22" ht="116">
       <c r="B203" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C203" s="39" t="s">
+      <c r="C203" s="36" t="s">
         <v>337</v>
       </c>
     </row>
@@ -11273,8 +11373,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="72">
-      <c r="C205" s="40" t="s">
+    <row r="205" spans="1:22" ht="72.5">
+      <c r="C205" s="37" t="s">
         <v>343</v>
       </c>
       <c r="D205" s="1" t="s">
@@ -11285,27 +11385,25 @@
       <c r="A206" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C206" s="40" t="s">
+      <c r="C206" s="37" t="s">
         <v>346</v>
       </c>
-      <c r="D206" s="16"/>
-    </row>
-    <row r="207" spans="1:22" ht="144">
-      <c r="C207" s="42" t="s">
+    </row>
+    <row r="207" spans="1:22" ht="145">
+      <c r="C207" s="39" t="s">
         <v>353</v>
       </c>
-      <c r="D207" s="16"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C208" s="40" t="s">
+      <c r="C208" s="37" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="28.8">
-      <c r="C209" s="42" t="s">
+    <row r="209" spans="1:4" ht="29">
+      <c r="C209" s="39" t="s">
         <v>347</v>
       </c>
     </row>
@@ -11313,32 +11411,32 @@
       <c r="A210" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C210" s="40" t="s">
+      <c r="C210" s="37" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="72">
-      <c r="C211" s="40" t="s">
+    <row r="211" spans="1:4" ht="72.5">
+      <c r="C211" s="37" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="41" t="s">
+      <c r="A212" s="38" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="C213" s="40" t="s">
+      <c r="C213" s="37" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="C214" s="40" t="s">
+      <c r="C214" s="37" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="C215" s="40" t="s">
+      <c r="C215" s="37" t="s">
         <v>351</v>
       </c>
     </row>
@@ -11347,8 +11445,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="158.4">
-      <c r="B217" s="40" t="s">
+    <row r="217" spans="1:4" ht="159.5">
+      <c r="B217" s="37" t="s">
         <v>354</v>
       </c>
     </row>
@@ -11357,22 +11455,22 @@
         <v>338</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="144">
+    <row r="219" spans="1:4" ht="145">
       <c r="B219" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C219" s="40" t="s">
+      <c r="C219" s="37" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="86.4">
+    <row r="220" spans="1:4" ht="87">
       <c r="B220" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C220" s="42" t="s">
+      <c r="C220" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="D220" s="16" t="s">
+      <c r="D220" s="1" t="s">
         <v>357</v>
       </c>
     </row>
@@ -11380,26 +11478,26 @@
       <c r="A221" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D221" s="16" t="s">
+      <c r="D221" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="72">
+    <row r="222" spans="1:4" ht="72.5">
       <c r="A222" s="1" t="s">
         <v>373</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C222" s="42" t="s">
+      <c r="C222" s="39" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="158.4">
+    <row r="223" spans="1:4" ht="159.5">
       <c r="B223" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C223" s="42" t="s">
+      <c r="C223" s="39" t="s">
         <v>365</v>
       </c>
     </row>
@@ -11407,15 +11505,15 @@
       <c r="A224" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D224" s="16" t="s">
+      <c r="D224" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="187.2">
+    <row r="225" spans="1:22" ht="188.5">
       <c r="B225" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C225" s="42" t="s">
+      <c r="C225" s="39" t="s">
         <v>367</v>
       </c>
     </row>
@@ -11424,61 +11522,61 @@
         <v>369</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="216">
+    <row r="227" spans="1:22" ht="217.5">
       <c r="A227" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C227" s="42" t="s">
+      <c r="C227" s="39" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="201.6">
+    <row r="228" spans="1:22" ht="203">
       <c r="A228" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C228" s="42" t="s">
+      <c r="C228" s="39" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="158.4">
-      <c r="A229" s="43" t="s">
+    <row r="229" spans="1:22" ht="159.5">
+      <c r="A229" s="40" t="s">
         <v>383</v>
       </c>
-      <c r="C229" s="43" t="s">
+      <c r="C229" s="40" t="s">
         <v>384</v>
       </c>
-      <c r="D229" s="16" t="s">
+      <c r="D229" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="28.8">
-      <c r="A230" s="44" t="s">
+    <row r="230" spans="1:22" ht="29">
+      <c r="A230" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="144">
+    <row r="231" spans="1:22" ht="145">
       <c r="B231" s="1"/>
       <c r="C231" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="D231" s="43" t="s">
+      <c r="D231" s="40" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="232" spans="1:22">
-      <c r="A232" s="41" t="s">
+      <c r="A232" s="38" t="s">
         <v>349</v>
       </c>
       <c r="C232" s="1"/>
-      <c r="D232" s="43"/>
-    </row>
-    <row r="233" spans="1:22" ht="72">
+      <c r="D232" s="40"/>
+    </row>
+    <row r="233" spans="1:22" ht="72.5">
       <c r="C233" s="2" t="s">
         <v>385</v>
       </c>
@@ -11543,7 +11641,7 @@
       <c r="S243" s="5"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:22" ht="28.8">
+    <row r="244" spans="1:22" ht="29">
       <c r="A244" s="1" t="s">
         <v>390</v>
       </c>
@@ -11562,78 +11660,78 @@
         <v>392</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="57.6">
-      <c r="C246" s="45" t="s">
+    <row r="246" spans="1:22" ht="58">
+      <c r="C246" s="42" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="28.8">
-      <c r="A247" s="44" t="s">
+    <row r="247" spans="1:22" ht="29">
+      <c r="A247" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="C247" s="45"/>
-    </row>
-    <row r="248" spans="1:22" ht="288">
+      <c r="C247" s="42"/>
+    </row>
+    <row r="248" spans="1:22" ht="290">
       <c r="A248" s="1" t="s">
         <v>400</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C248" s="46" t="s">
+      <c r="C248" s="43" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="302.39999999999998">
+    <row r="249" spans="1:22" ht="304.5">
       <c r="A249" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C249" s="45" t="s">
+      <c r="C249" s="42" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="409.6">
+    <row r="250" spans="1:22" ht="409.5">
       <c r="A250" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="C250" s="45" t="s">
+      <c r="C250" s="42" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="273.60000000000002">
+    <row r="251" spans="1:22" ht="275.5">
       <c r="A251" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C251" s="45" t="s">
+      <c r="C251" s="42" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="252" spans="1:22">
-      <c r="A252" s="41" t="s">
+      <c r="A252" s="38" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="86.4">
+    <row r="253" spans="1:22" ht="87">
       <c r="B253" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C253" s="45" t="s">
+      <c r="C253" s="42" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="28.8">
-      <c r="A254" s="44" t="s">
+    <row r="254" spans="1:22" ht="29">
+      <c r="A254" s="41" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="316.8">
+    <row r="255" spans="1:22" ht="319">
       <c r="A255" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C255" s="45" t="s">
+      <c r="C255" s="42" t="s">
         <v>409</v>
       </c>
     </row>
@@ -11645,25 +11743,25 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="409.6">
+    <row r="257" spans="1:22" ht="409.5">
       <c r="A257" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B257" s="45" t="s">
+      <c r="B257" s="42" t="s">
         <v>416</v>
       </c>
-      <c r="C257" s="45" t="s">
+      <c r="C257" s="42" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="288">
+    <row r="258" spans="1:22" ht="290">
       <c r="A258" s="1" t="s">
         <v>406</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C258" s="45" t="s">
+      <c r="C258" s="42" t="s">
         <v>403</v>
       </c>
     </row>
@@ -11697,33 +11795,33 @@
       <c r="U261" s="1"/>
       <c r="V261" s="2"/>
     </row>
-    <row r="262" spans="1:22" ht="28.8">
-      <c r="C262" s="46" t="s">
+    <row r="262" spans="1:22" ht="29">
+      <c r="C262" s="43" t="s">
         <v>420</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="409.6">
+    <row r="263" spans="1:22" ht="409.5">
       <c r="A263" s="1" t="s">
         <v>338</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C263" s="46" t="s">
+      <c r="C263" s="43" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="360">
+    <row r="264" spans="1:22" ht="362.5">
       <c r="A264" s="1" t="s">
         <v>422</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C264" s="46" t="s">
+      <c r="C264" s="43" t="s">
         <v>423</v>
       </c>
     </row>
@@ -11746,12 +11844,12 @@
       <c r="S266" s="5"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:22" ht="28.8">
+    <row r="267" spans="1:22" ht="29">
       <c r="A267" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C267" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>426</v>
@@ -11765,56 +11863,56 @@
         <v>438</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="28.8">
+    <row r="269" spans="1:22" ht="29">
       <c r="A269" s="2" t="s">
         <v>429</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C269" s="47" t="s">
+      <c r="C269" s="44" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="28.8">
+    <row r="270" spans="1:22" ht="29">
       <c r="A270" s="2" t="s">
         <v>431</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C270" s="47" t="s">
+      <c r="C270" s="44" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="28.8">
+    <row r="271" spans="1:22" ht="43.5">
       <c r="A271" s="2" t="s">
         <v>434</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C271" s="47" t="s">
+      <c r="C271" s="44" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="272" spans="1:22">
-      <c r="A272" s="33" t="s">
+      <c r="A272" s="30" t="s">
         <v>437</v>
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="28.8">
+    <row r="273" spans="1:3" ht="29">
       <c r="A273" s="2"/>
-      <c r="C273" s="47" t="s">
+      <c r="C273" s="44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="57.6">
-      <c r="A274" s="47" t="s">
+    <row r="274" spans="1:3" ht="58">
+      <c r="A274" s="44" t="s">
         <v>439</v>
       </c>
-      <c r="C274" s="47" t="s">
+      <c r="C274" s="44" t="s">
         <v>440</v>
       </c>
     </row>
@@ -11825,67 +11923,67 @@
       <c r="B275" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C275" s="47"/>
-    </row>
-    <row r="276" spans="1:3" ht="30">
+      <c r="C275" s="44"/>
+    </row>
+    <row r="276" spans="1:3" ht="32">
       <c r="A276" s="2" t="s">
         <v>447</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="C276" s="48" t="s">
+      <c r="C276" s="45" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="60">
+    <row r="277" spans="1:3" ht="64">
       <c r="A277" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C277" s="48" t="s">
+      <c r="C277" s="45" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="45">
+    <row r="278" spans="1:3" ht="48">
       <c r="A278" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C278" s="48" t="s">
+      <c r="C278" s="45" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="28.8">
+    <row r="279" spans="1:3" ht="29">
       <c r="A279" s="2" t="s">
         <v>453</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C279" s="47"/>
+      <c r="C279" s="44"/>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" s="2"/>
-      <c r="C280" s="47"/>
+      <c r="C280" s="44"/>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" s="2"/>
-      <c r="C281" s="47"/>
-    </row>
-    <row r="282" spans="1:3" ht="302.39999999999998">
+      <c r="C281" s="44"/>
+    </row>
+    <row r="282" spans="1:3" ht="304.5">
       <c r="B282" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C282" s="49" t="s">
+      <c r="C282" s="46" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="216">
-      <c r="C283" s="49" t="s">
+    <row r="283" spans="1:3" ht="217.5">
+      <c r="C283" s="46" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11895,128 +11993,190 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF32088-FDD0-46A0-946F-1A7398394841}">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="85.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1">
-      <c r="A4" s="56" t="s">
-        <v>465</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20"/>
-    </row>
-    <row r="5" spans="1:22" ht="374.4">
+      <c r="C3" s="51" t="s">
+        <v>463</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1">
+      <c r="A4" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:22" ht="130.5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="49" t="s">
-        <v>454</v>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>493</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="158.4">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="58">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="54" t="s">
-        <v>466</v>
-      </c>
-      <c r="D6" s="1"/>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="58">
+      <c r="A7" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>496</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="52" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" ht="58">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>499</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" ht="130.5">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C10" s="66" t="s">
+        <v>497</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="145">
+      <c r="A11" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="66" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -12029,148 +12189,148 @@
   </sheetPr>
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="61" t="s">
-        <v>485</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1">
-      <c r="A4" s="62" t="s">
+      <c r="C3" s="57" t="s">
+        <v>482</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1">
+      <c r="A4" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="30"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20"/>
-    </row>
-    <row r="5" spans="1:22" s="19" customFormat="1">
-      <c r="A5" s="68" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="69" t="s">
-        <v>492</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:22" s="18" customFormat="1">
+      <c r="A5" s="62" t="s">
+        <v>490</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="19"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="59" t="s">
+        <v>486</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" ht="232">
+      <c r="A7" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="59" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="409.5">
+      <c r="A8" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>488</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="63" t="s">
-        <v>489</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" ht="230.4">
-      <c r="A7" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="63" t="s">
-        <v>486</v>
-      </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="409.6">
-      <c r="A8" s="64" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -12197,72 +12357,72 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>467</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
+      <c r="C3" s="53" t="s">
+        <v>465</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12285,132 +12445,132 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="D3" s="58"/>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
+      <c r="C3" s="53" t="s">
+        <v>481</v>
+      </c>
+      <c r="D3" s="54"/>
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="60" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="129.6">
-      <c r="C5" s="59" t="s">
+      <c r="A4" s="56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="130.5">
+      <c r="C5" s="55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="217.5">
+      <c r="A6" s="54" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="319">
+      <c r="A7" s="54" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="216">
-      <c r="A6" s="58" t="s">
+      <c r="C7" s="55" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="362.5">
+      <c r="A8" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>473</v>
       </c>
-      <c r="C6" s="59" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="316.8">
-      <c r="A7" s="58" t="s">
-        <v>474</v>
-      </c>
-      <c r="C7" s="59" t="s">
+    </row>
+    <row r="9" spans="1:22" ht="333.5">
+      <c r="A9" s="54" t="s">
+        <v>476</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="377">
+      <c r="A10" s="54" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" ht="360">
-      <c r="A8" s="58" t="s">
+      <c r="C10" s="55" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="409.5">
+      <c r="B12" s="55" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="55" t="s">
         <v>477</v>
-      </c>
-      <c r="C8" s="59" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="331.2">
-      <c r="A9" s="58" t="s">
-        <v>479</v>
-      </c>
-      <c r="C9" s="59" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" ht="374.4">
-      <c r="A10" s="58" t="s">
-        <v>478</v>
-      </c>
-      <c r="C10" s="59" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="60" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" ht="409.6">
-      <c r="B12" s="59" t="s">
-        <v>481</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -12433,136 +12593,136 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1">
-      <c r="A4" s="28" t="s">
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1">
+      <c r="A4" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20"/>
-    </row>
-    <row r="5" spans="1:22" ht="86.4">
-      <c r="C5" s="21" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="19"/>
+    </row>
+    <row r="5" spans="1:22" ht="87">
+      <c r="C5" s="20" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="244.8">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="1:22" ht="246.5">
+      <c r="C7" s="20" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.2">
-      <c r="B9" s="21" t="s">
+    <row r="9" spans="1:22" ht="43.5">
+      <c r="B9" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="172.8">
-      <c r="B10" s="21" t="s">
+    <row r="10" spans="1:22" ht="174">
+      <c r="B10" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="244.8">
-      <c r="C12" s="21" t="s">
+    <row r="12" spans="1:22" ht="246.5">
+      <c r="C12" s="20" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12586,105 +12746,105 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="65" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22" s="19" customFormat="1">
-      <c r="A4" s="26" t="s">
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22" s="18" customFormat="1">
+      <c r="A4" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="26"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="20"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="25"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12708,98 +12868,98 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="36" style="20" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="21" customWidth="1"/>
-    <col min="3" max="3" width="71.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="21" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="20" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="19" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="20" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="20" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="20" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="21" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="21" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="21" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="20" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="22"/>
-    <col min="21" max="21" width="67.77734375" style="21" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="20" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="20" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="20" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="20" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="20" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="20"/>
+    <col min="1" max="1" width="36" style="19" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.81640625" style="21"/>
+    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.81640625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-      <c r="S2" s="24"/>
-      <c r="U2" s="24"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
+        <v>455</v>
+      </c>
+      <c r="P3" s="19"/>
+      <c r="U3" s="19"/>
+      <c r="V3" s="20"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="49" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="409.5">
+      <c r="C5" s="48" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="333.5">
+      <c r="C6" s="48" t="s">
         <v>457</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="21"/>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" s="52" t="s">
+    </row>
+    <row r="7" spans="1:22" ht="275.5">
+      <c r="C7" s="48" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="49" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="409.5">
+      <c r="C9" s="48" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" ht="409.6">
-      <c r="C5" s="51" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" ht="331.2">
-      <c r="C6" s="51" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" ht="273.60000000000002">
-      <c r="C7" s="51" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" s="52" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="409.6">
-      <c r="C9" s="51" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\GB_Developer_Workbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F180E0-0AA0-4CEF-BBBA-ECA73963BA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E64927-27A1-458D-B0A7-3E2A02AD0E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9705" yWindow="-18840" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
@@ -27,12 +27,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="505">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7813,6 +7816,55 @@
   <si>
     <r>
       <t xml:space="preserve">                      &lt;button 
+                              v-bind:class=" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "
+                      &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;template&gt;
+  &lt;button :class="buttonClass"&gt;Кнопка&lt;/button&gt;
+&lt;/template&gt;
+&lt;script&gt;
+export default {
+  computed: {
+    buttonClass() {
+      return this.checkBtn(this.table.TableNameReal) 
+        ? 'btn-primary' 
+        : 'hwc-btn-unactive';
+    }
+  }
+}
+&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Вариант 4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">                      &lt;button 
                               v-bind:class="
                               [
                                 </t>
@@ -7827,9 +7879,9 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'custom_class_1',
+      <t xml:space="preserve">'custom_class_1',
                                 {'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}, 
-                                'custom_class_2'</t>
+                                colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null </t>
     </r>
     <r>
       <rPr>
@@ -7847,46 +7899,33 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                      &lt;button 
-                              v-bind:class=" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-                      &lt;/button&gt;</t>
-    </r>
+    <t>когда 1 class</t>
+  </si>
+  <si>
+    <t>когда несколько class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">через computed </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="41">
+  <fonts count="42">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8316,10 +8355,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8330,20 +8369,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8355,7 +8394,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8364,80 +8403,83 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="34" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8446,34 +8488,49 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8482,43 +8539,31 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="40" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9598,35 +9643,35 @@
       <selection activeCell="B283" sqref="B283"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="1" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="71.08984375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="64.453125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.90625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="72.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.90625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="56.90625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="46.6328125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="49.08984375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6328125" style="8"/>
-    <col min="21" max="21" width="67.6328125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="68.453125" style="1" customWidth="1"/>
-    <col min="23" max="24" width="59.453125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="59.54296875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="41.36328125" style="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.6328125" style="1"/>
+    <col min="2" max="2" width="50.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="43.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="64.44140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="39.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="72.5546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16" width="56.88671875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="46.6640625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="49.109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" style="8"/>
+    <col min="21" max="21" width="67.6640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="68.44140625" style="1" customWidth="1"/>
+    <col min="23" max="24" width="59.44140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="59.5546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="41.33203125" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:22">
@@ -9683,12 +9728,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="29">
+    <row r="7" spans="1:22" ht="28.8">
       <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="101.5">
+    <row r="8" spans="1:22" ht="100.8">
       <c r="B8" s="2" t="s">
         <v>216</v>
       </c>
@@ -9732,7 +9777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="29">
+    <row r="12" spans="1:22" ht="28.8">
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
@@ -9743,7 +9788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="29">
+    <row r="13" spans="1:22" ht="28.8">
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
@@ -9751,7 +9796,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="29">
+    <row r="14" spans="1:22" ht="28.8">
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -9759,7 +9804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="29">
+    <row r="15" spans="1:22" ht="28.8">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -9767,7 +9812,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="29">
+    <row r="16" spans="1:22" ht="28.8">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -9781,7 +9826,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="101.5">
+    <row r="17" spans="1:22" ht="100.8">
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -9792,7 +9837,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="29">
+    <row r="18" spans="1:22" ht="28.8">
       <c r="A18" s="10" t="s">
         <v>29</v>
       </c>
@@ -9803,7 +9848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="101.5">
+    <row r="19" spans="1:22" ht="100.8">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
@@ -9811,7 +9856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="101.5">
+    <row r="20" spans="1:22" ht="100.8">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
@@ -9849,7 +9894,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="29">
+    <row r="24" spans="1:22" ht="28.8">
       <c r="A24" s="10" t="s">
         <v>36</v>
       </c>
@@ -9865,7 +9910,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="58">
+    <row r="26" spans="1:22" ht="57.6">
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
@@ -9873,7 +9918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="29">
+    <row r="27" spans="1:22" ht="28.8">
       <c r="C27" s="9" t="s">
         <v>43</v>
       </c>
@@ -9886,7 +9931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="72.5">
+    <row r="29" spans="1:22" ht="72">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
@@ -9902,7 +9947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="130.5">
+    <row r="31" spans="1:22" ht="129.6">
       <c r="A31" s="1" t="s">
         <v>46</v>
       </c>
@@ -9913,7 +9958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="58">
+    <row r="32" spans="1:22" ht="57.6">
       <c r="A32" s="1" t="s">
         <v>49</v>
       </c>
@@ -9924,7 +9969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="116">
+    <row r="33" spans="1:4" ht="115.2">
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
@@ -9932,7 +9977,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="116">
+    <row r="34" spans="1:4" ht="115.2">
       <c r="A34" s="1" t="s">
         <v>53</v>
       </c>
@@ -9946,7 +9991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="72.5">
+    <row r="35" spans="1:4" ht="72">
       <c r="A35" s="1" t="s">
         <v>57</v>
       </c>
@@ -9957,7 +10002,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="116">
+    <row r="36" spans="1:4" ht="115.2">
       <c r="C36" s="13" t="s">
         <v>63</v>
       </c>
@@ -9974,7 +10019,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="43.5">
+    <row r="38" spans="1:4" ht="43.2">
       <c r="B38" s="17" t="s">
         <v>190</v>
       </c>
@@ -9982,7 +10027,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="188.5">
+    <row r="39" spans="1:4" ht="187.2">
       <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
@@ -9990,7 +10035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="29">
+    <row r="40" spans="1:4" ht="28.8">
       <c r="C40" s="13" t="s">
         <v>117</v>
       </c>
@@ -10008,7 +10053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="29">
+    <row r="43" spans="1:4" ht="28.8">
       <c r="A43" s="2" t="s">
         <v>61</v>
       </c>
@@ -10016,12 +10061,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="29">
+    <row r="44" spans="1:4" ht="28.8">
       <c r="C44" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="29">
+    <row r="45" spans="1:4" ht="28.8">
       <c r="A45" s="2" t="s">
         <v>62</v>
       </c>
@@ -10039,7 +10084,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="87">
+    <row r="48" spans="1:4" ht="86.4">
       <c r="A48" s="1" t="s">
         <v>66</v>
       </c>
@@ -10058,7 +10103,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="217.5">
+    <row r="50" spans="1:22" ht="216">
       <c r="A50" s="17" t="s">
         <v>183</v>
       </c>
@@ -10075,7 +10120,7 @@
       </c>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:22" ht="87">
+    <row r="52" spans="1:22" ht="86.4">
       <c r="A52" s="2" t="s">
         <v>179</v>
       </c>
@@ -10086,7 +10131,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="43.5">
+    <row r="53" spans="1:22" ht="43.2">
       <c r="C53" s="13" t="s">
         <v>67</v>
       </c>
@@ -10131,7 +10176,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:22" ht="29">
+    <row r="62" spans="1:22" ht="28.8">
       <c r="A62" s="1" t="s">
         <v>79</v>
       </c>
@@ -10145,7 +10190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:22" ht="58">
+    <row r="63" spans="1:22" ht="57.6">
       <c r="A63" s="1" t="s">
         <v>81</v>
       </c>
@@ -10156,7 +10201,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:22" ht="29">
+    <row r="64" spans="1:22" ht="28.8">
       <c r="A64" s="13" t="s">
         <v>98</v>
       </c>
@@ -10168,7 +10213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="29">
+    <row r="65" spans="1:22" ht="28.8">
       <c r="A65" s="1" t="s">
         <v>102</v>
       </c>
@@ -10185,7 +10230,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="72.5">
+    <row r="67" spans="1:22" ht="72">
       <c r="B67" s="2" t="s">
         <v>94</v>
       </c>
@@ -10193,12 +10238,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="145">
+    <row r="68" spans="1:22" ht="144">
       <c r="C68" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="116">
+    <row r="69" spans="1:22" ht="115.2">
       <c r="C69" s="13" t="s">
         <v>95</v>
       </c>
@@ -10211,7 +10256,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="43.5">
+    <row r="71" spans="1:22" ht="43.2">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -10222,7 +10267,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="72" spans="1:22" ht="29">
+    <row r="72" spans="1:22" ht="28.8">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -10231,7 +10276,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="130.5">
+    <row r="73" spans="1:22" ht="129.6">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -10242,7 +10287,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="101.5">
+    <row r="74" spans="1:22" ht="100.8">
       <c r="A74" s="1" t="s">
         <v>105</v>
       </c>
@@ -10253,7 +10298,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="72.5">
+    <row r="75" spans="1:22" ht="72">
       <c r="B75" s="2" t="s">
         <v>109</v>
       </c>
@@ -10307,7 +10352,7 @@
       <c r="U79" s="1"/>
       <c r="V79" s="2"/>
     </row>
-    <row r="80" spans="1:22" ht="409.5">
+    <row r="80" spans="1:22" ht="409.6">
       <c r="C80" s="2" t="s">
         <v>146</v>
       </c>
@@ -10326,7 +10371,7 @@
       <c r="U81" s="1"/>
       <c r="V81" s="2"/>
     </row>
-    <row r="82" spans="1:22" ht="87">
+    <row r="82" spans="1:22" ht="86.4">
       <c r="A82" s="1" t="s">
         <v>123</v>
       </c>
@@ -10337,7 +10382,7 @@
       <c r="U82" s="1"/>
       <c r="V82" s="2"/>
     </row>
-    <row r="83" spans="1:22" ht="43.5">
+    <row r="83" spans="1:22" ht="43.2">
       <c r="A83" s="1" t="s">
         <v>124</v>
       </c>
@@ -10357,7 +10402,7 @@
       <c r="U84" s="1"/>
       <c r="V84" s="2"/>
     </row>
-    <row r="85" spans="1:22" ht="29">
+    <row r="85" spans="1:22" ht="28.8">
       <c r="A85" s="1" t="s">
         <v>125</v>
       </c>
@@ -10368,7 +10413,7 @@
       <c r="U85" s="1"/>
       <c r="V85" s="2"/>
     </row>
-    <row r="86" spans="1:22" ht="29">
+    <row r="86" spans="1:22" ht="28.8">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -10379,7 +10424,7 @@
       <c r="U86" s="1"/>
       <c r="V86" s="2"/>
     </row>
-    <row r="87" spans="1:22" ht="159.5">
+    <row r="87" spans="1:22" ht="158.4">
       <c r="B87" s="2" t="s">
         <v>156</v>
       </c>
@@ -10399,7 +10444,7 @@
       <c r="U88" s="1"/>
       <c r="V88" s="2"/>
     </row>
-    <row r="89" spans="1:22" ht="29">
+    <row r="89" spans="1:22" ht="28.8">
       <c r="A89" s="1" t="s">
         <v>137</v>
       </c>
@@ -10413,7 +10458,7 @@
       <c r="U89" s="1"/>
       <c r="V89" s="2"/>
     </row>
-    <row r="90" spans="1:22" ht="29">
+    <row r="90" spans="1:22" ht="28.8">
       <c r="A90" s="1" t="s">
         <v>139</v>
       </c>
@@ -10435,7 +10480,7 @@
       <c r="U91" s="1"/>
       <c r="V91" s="2"/>
     </row>
-    <row r="92" spans="1:22" ht="29">
+    <row r="92" spans="1:22" ht="28.8">
       <c r="A92" s="1" t="s">
         <v>144</v>
       </c>
@@ -10446,7 +10491,7 @@
       <c r="U92" s="1"/>
       <c r="V92" s="2"/>
     </row>
-    <row r="93" spans="1:22" ht="87">
+    <row r="93" spans="1:22" ht="86.4">
       <c r="B93" s="2" t="s">
         <v>157</v>
       </c>
@@ -10460,7 +10505,7 @@
       <c r="U93" s="1"/>
       <c r="V93" s="2"/>
     </row>
-    <row r="94" spans="1:22" ht="29">
+    <row r="94" spans="1:22" ht="28.8">
       <c r="A94" s="1" t="s">
         <v>145</v>
       </c>
@@ -10471,7 +10516,7 @@
       <c r="U94" s="1"/>
       <c r="V94" s="2"/>
     </row>
-    <row r="95" spans="1:22" ht="29">
+    <row r="95" spans="1:22" ht="28.8">
       <c r="C95" s="16" t="s">
         <v>162</v>
       </c>
@@ -10479,7 +10524,7 @@
       <c r="U95" s="1"/>
       <c r="V95" s="2"/>
     </row>
-    <row r="96" spans="1:22" ht="377">
+    <row r="96" spans="1:22" ht="374.4">
       <c r="A96" s="2" t="s">
         <v>169</v>
       </c>
@@ -10493,7 +10538,7 @@
       <c r="U96" s="1"/>
       <c r="V96" s="2"/>
     </row>
-    <row r="97" spans="1:22" ht="409.5">
+    <row r="97" spans="1:22" ht="409.6">
       <c r="B97" s="2" t="s">
         <v>164</v>
       </c>
@@ -10504,7 +10549,7 @@
       <c r="U97" s="1"/>
       <c r="V97" s="2"/>
     </row>
-    <row r="98" spans="1:22" ht="409.5">
+    <row r="98" spans="1:22" ht="409.6">
       <c r="B98" s="2" t="s">
         <v>166</v>
       </c>
@@ -10526,7 +10571,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="29">
+    <row r="101" spans="1:22" ht="28.8">
       <c r="A101" s="1" t="s">
         <v>148</v>
       </c>
@@ -10569,7 +10614,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="43.5">
+    <row r="105" spans="1:22" ht="43.2">
       <c r="A105" s="1" t="s">
         <v>151</v>
       </c>
@@ -10580,7 +10625,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="29">
+    <row r="106" spans="1:22" ht="28.8">
       <c r="A106" s="13" t="s">
         <v>228</v>
       </c>
@@ -10588,7 +10633,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:22" ht="58">
+    <row r="107" spans="1:22" ht="57.6">
       <c r="A107" s="1" t="s">
         <v>229</v>
       </c>
@@ -10596,7 +10641,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="116">
+    <row r="108" spans="1:22" ht="115.2">
       <c r="B108" s="2" t="s">
         <v>231</v>
       </c>
@@ -10615,7 +10660,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="58">
+    <row r="113" spans="1:4" ht="57.6">
       <c r="A113" s="17" t="s">
         <v>191</v>
       </c>
@@ -10626,14 +10671,14 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="72.5">
+    <row r="114" spans="1:4" ht="72">
       <c r="A114" s="17"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="29">
+    <row r="115" spans="1:4" ht="28.8">
       <c r="B115" s="2" t="s">
         <v>173</v>
       </c>
@@ -10641,7 +10686,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="43.5">
+    <row r="116" spans="1:4" ht="43.2">
       <c r="B116" s="2" t="s">
         <v>219</v>
       </c>
@@ -10649,7 +10694,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="261">
+    <row r="117" spans="1:4" ht="259.2">
       <c r="B117" s="2" t="s">
         <v>218</v>
       </c>
@@ -10657,7 +10702,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="29">
+    <row r="118" spans="1:4" ht="28.8">
       <c r="B118" s="2" t="s">
         <v>176</v>
       </c>
@@ -10665,7 +10710,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="217.5">
+    <row r="119" spans="1:4" ht="216">
       <c r="B119" s="2" t="s">
         <v>178</v>
       </c>
@@ -10678,7 +10723,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="409.5">
+    <row r="121" spans="1:4" ht="409.6">
       <c r="B121" s="2" t="s">
         <v>181</v>
       </c>
@@ -10686,7 +10731,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="72.5">
+    <row r="122" spans="1:4" ht="72">
       <c r="A122" s="30" t="s">
         <v>223</v>
       </c>
@@ -10694,7 +10739,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="377">
+    <row r="123" spans="1:4" ht="374.4">
       <c r="C123" s="17" t="s">
         <v>224</v>
       </c>
@@ -10702,7 +10747,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="333.5">
+    <row r="124" spans="1:4" ht="331.2">
       <c r="C124" s="17" t="s">
         <v>227</v>
       </c>
@@ -10718,7 +10763,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="116">
+    <row r="126" spans="1:4" ht="115.2">
       <c r="A126" s="17" t="s">
         <v>194</v>
       </c>
@@ -10737,7 +10782,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="159.5">
+    <row r="128" spans="1:4" ht="158.4">
       <c r="B128" s="2" t="s">
         <v>214</v>
       </c>
@@ -10748,7 +10793,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="145">
+    <row r="129" spans="1:22" ht="144">
       <c r="D129" s="2" t="s">
         <v>215</v>
       </c>
@@ -10788,7 +10833,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="58">
+    <row r="135" spans="1:22" ht="57.6">
       <c r="A135" s="1" t="s">
         <v>288</v>
       </c>
@@ -10802,7 +10847,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="136" spans="1:22" ht="145">
+    <row r="136" spans="1:22" ht="144">
       <c r="A136" s="1" t="s">
         <v>287</v>
       </c>
@@ -10869,7 +10914,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="145">
+    <row r="145" spans="1:4" ht="158.4">
       <c r="B145" s="2" t="s">
         <v>265</v>
       </c>
@@ -10889,7 +10934,7 @@
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
     </row>
-    <row r="148" spans="1:4" ht="72.5">
+    <row r="148" spans="1:4" ht="72">
       <c r="B148" s="2" t="s">
         <v>239</v>
       </c>
@@ -10904,7 +10949,7 @@
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
     </row>
-    <row r="150" spans="1:4" ht="188.5">
+    <row r="150" spans="1:4" ht="187.2">
       <c r="A150" s="33"/>
       <c r="B150" s="2" t="s">
         <v>240</v>
@@ -10913,7 +10958,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="58">
+    <row r="151" spans="1:4" ht="57.6">
       <c r="A151" s="1" t="s">
         <v>280</v>
       </c>
@@ -10924,7 +10969,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="217.5">
+    <row r="152" spans="1:4" ht="216">
       <c r="A152" s="1" t="s">
         <v>281</v>
       </c>
@@ -10942,7 +10987,7 @@
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
     </row>
-    <row r="154" spans="1:4" ht="145">
+    <row r="154" spans="1:4" ht="144">
       <c r="B154" s="2" t="s">
         <v>241</v>
       </c>
@@ -10953,7 +10998,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="232">
+    <row r="155" spans="1:4" ht="230.4">
       <c r="A155" s="1" t="s">
         <v>271</v>
       </c>
@@ -10961,7 +11006,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="156" spans="1:4" ht="145">
+    <row r="156" spans="1:4" ht="144">
       <c r="A156" s="1" t="s">
         <v>272</v>
       </c>
@@ -10975,7 +11020,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="43.5">
+    <row r="157" spans="1:4" ht="43.2">
       <c r="B157" s="2" t="s">
         <v>276</v>
       </c>
@@ -10994,7 +11039,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="246.5">
+    <row r="159" spans="1:4" ht="244.8">
       <c r="B159" s="2" t="s">
         <v>253</v>
       </c>
@@ -11005,7 +11050,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="333.5">
+    <row r="160" spans="1:4" ht="331.2">
       <c r="A160" s="1" t="s">
         <v>295</v>
       </c>
@@ -11016,7 +11061,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="116">
+    <row r="161" spans="1:22" ht="115.2">
       <c r="A161" s="1" t="s">
         <v>296</v>
       </c>
@@ -11034,7 +11079,7 @@
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
     </row>
-    <row r="163" spans="1:22" ht="174">
+    <row r="163" spans="1:22" ht="172.8">
       <c r="B163" s="2" t="s">
         <v>242</v>
       </c>
@@ -11047,7 +11092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="43.5">
+    <row r="165" spans="1:22" ht="43.2">
       <c r="C165" s="17" t="s">
         <v>254</v>
       </c>
@@ -11063,7 +11108,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="145">
+    <row r="167" spans="1:22" ht="144">
       <c r="A167" s="2" t="s">
         <v>26</v>
       </c>
@@ -11077,7 +11122,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="409.5">
+    <row r="168" spans="1:22" ht="409.6">
       <c r="A168" s="2" t="s">
         <v>256</v>
       </c>
@@ -11091,7 +11136,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="409.5">
+    <row r="169" spans="1:22" ht="409.6">
       <c r="A169" s="17" t="s">
         <v>262</v>
       </c>
@@ -11178,7 +11223,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="183" spans="1:22" ht="101.5">
+    <row r="183" spans="1:22" ht="100.8">
       <c r="A183" s="1" t="s">
         <v>309</v>
       </c>
@@ -11192,7 +11237,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="184" spans="1:22" ht="101.5">
+    <row r="184" spans="1:22" ht="100.8">
       <c r="A184" s="1" t="s">
         <v>312</v>
       </c>
@@ -11203,7 +11248,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="185" spans="1:22" ht="130.5">
+    <row r="185" spans="1:22" ht="129.6">
       <c r="A185" s="1" t="s">
         <v>315</v>
       </c>
@@ -11252,7 +11297,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="191" spans="1:22" ht="72.5">
+    <row r="191" spans="1:22" ht="72">
       <c r="A191" s="1" t="s">
         <v>319</v>
       </c>
@@ -11266,7 +11311,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="192" spans="1:22" ht="261">
+    <row r="192" spans="1:22" ht="259.2">
       <c r="B192" s="2" t="s">
         <v>321</v>
       </c>
@@ -11350,7 +11395,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="201" spans="1:22" ht="409.5">
+    <row r="201" spans="1:22" ht="409.6">
       <c r="C201" s="50" t="s">
         <v>358</v>
       </c>
@@ -11360,7 +11405,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="203" spans="1:22" ht="116">
+    <row r="203" spans="1:22" ht="115.2">
       <c r="B203" s="2" t="s">
         <v>340</v>
       </c>
@@ -11373,7 +11418,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="205" spans="1:22" ht="72.5">
+    <row r="205" spans="1:22" ht="72">
       <c r="C205" s="37" t="s">
         <v>343</v>
       </c>
@@ -11389,7 +11434,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="207" spans="1:22" ht="145">
+    <row r="207" spans="1:22" ht="144">
       <c r="C207" s="39" t="s">
         <v>353</v>
       </c>
@@ -11402,7 +11447,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="29">
+    <row r="209" spans="1:4" ht="28.8">
       <c r="C209" s="39" t="s">
         <v>347</v>
       </c>
@@ -11415,7 +11460,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="72.5">
+    <row r="211" spans="1:4" ht="72">
       <c r="C211" s="37" t="s">
         <v>348</v>
       </c>
@@ -11445,7 +11490,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="159.5">
+    <row r="217" spans="1:4" ht="158.4">
       <c r="B217" s="37" t="s">
         <v>354</v>
       </c>
@@ -11455,7 +11500,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="145">
+    <row r="219" spans="1:4" ht="144">
       <c r="B219" s="2" t="s">
         <v>355</v>
       </c>
@@ -11463,7 +11508,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="87">
+    <row r="220" spans="1:4" ht="86.4">
       <c r="B220" s="2" t="s">
         <v>359</v>
       </c>
@@ -11482,7 +11527,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="222" spans="1:4" ht="72.5">
+    <row r="222" spans="1:4" ht="72">
       <c r="A222" s="1" t="s">
         <v>373</v>
       </c>
@@ -11493,7 +11538,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="159.5">
+    <row r="223" spans="1:4" ht="158.4">
       <c r="B223" s="2" t="s">
         <v>338</v>
       </c>
@@ -11509,7 +11554,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="188.5">
+    <row r="225" spans="1:22" ht="187.2">
       <c r="B225" s="2" t="s">
         <v>338</v>
       </c>
@@ -11522,7 +11567,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="227" spans="1:22" ht="217.5">
+    <row r="227" spans="1:22" ht="216">
       <c r="A227" s="2" t="s">
         <v>374</v>
       </c>
@@ -11533,7 +11578,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="228" spans="1:22" ht="203">
+    <row r="228" spans="1:22" ht="201.6">
       <c r="A228" s="1" t="s">
         <v>379</v>
       </c>
@@ -11544,7 +11589,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="229" spans="1:22" ht="159.5">
+    <row r="229" spans="1:22" ht="158.4">
       <c r="A229" s="40" t="s">
         <v>383</v>
       </c>
@@ -11555,12 +11600,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="230" spans="1:22" ht="29">
+    <row r="230" spans="1:22" ht="28.8">
       <c r="A230" s="41" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="231" spans="1:22" ht="145">
+    <row r="231" spans="1:22" ht="144">
       <c r="B231" s="1"/>
       <c r="C231" s="2" t="s">
         <v>381</v>
@@ -11576,7 +11621,7 @@
       <c r="C232" s="1"/>
       <c r="D232" s="40"/>
     </row>
-    <row r="233" spans="1:22" ht="72.5">
+    <row r="233" spans="1:22" ht="72">
       <c r="C233" s="2" t="s">
         <v>385</v>
       </c>
@@ -11641,7 +11686,7 @@
       <c r="S243" s="5"/>
       <c r="U243" s="5"/>
     </row>
-    <row r="244" spans="1:22" ht="29">
+    <row r="244" spans="1:22" ht="28.8">
       <c r="A244" s="1" t="s">
         <v>390</v>
       </c>
@@ -11660,18 +11705,18 @@
         <v>392</v>
       </c>
     </row>
-    <row r="246" spans="1:22" ht="58">
+    <row r="246" spans="1:22" ht="57.6">
       <c r="C246" s="42" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="247" spans="1:22" ht="29">
+    <row r="247" spans="1:22" ht="28.8">
       <c r="A247" s="41" t="s">
         <v>407</v>
       </c>
       <c r="C247" s="42"/>
     </row>
-    <row r="248" spans="1:22" ht="290">
+    <row r="248" spans="1:22" ht="288">
       <c r="A248" s="1" t="s">
         <v>400</v>
       </c>
@@ -11682,7 +11727,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:22" ht="304.5">
+    <row r="249" spans="1:22" ht="302.39999999999998">
       <c r="A249" s="2" t="s">
         <v>404</v>
       </c>
@@ -11690,7 +11735,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="250" spans="1:22" ht="409.5">
+    <row r="250" spans="1:22" ht="409.6">
       <c r="A250" s="1" t="s">
         <v>401</v>
       </c>
@@ -11698,7 +11743,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="251" spans="1:22" ht="275.5">
+    <row r="251" spans="1:22" ht="273.60000000000002">
       <c r="A251" s="1" t="s">
         <v>406</v>
       </c>
@@ -11714,7 +11759,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="253" spans="1:22" ht="87">
+    <row r="253" spans="1:22" ht="86.4">
       <c r="B253" s="2" t="s">
         <v>398</v>
       </c>
@@ -11722,12 +11767,12 @@
         <v>397</v>
       </c>
     </row>
-    <row r="254" spans="1:22" ht="29">
+    <row r="254" spans="1:22" ht="28.8">
       <c r="A254" s="41" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="255" spans="1:22" ht="319">
+    <row r="255" spans="1:22" ht="316.8">
       <c r="A255" s="2" t="s">
         <v>410</v>
       </c>
@@ -11743,7 +11788,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="257" spans="1:22" ht="409.5">
+    <row r="257" spans="1:22" ht="409.6">
       <c r="A257" s="1" t="s">
         <v>401</v>
       </c>
@@ -11754,7 +11799,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="258" spans="1:22" ht="290">
+    <row r="258" spans="1:22" ht="288">
       <c r="A258" s="1" t="s">
         <v>406</v>
       </c>
@@ -11795,7 +11840,7 @@
       <c r="U261" s="1"/>
       <c r="V261" s="2"/>
     </row>
-    <row r="262" spans="1:22" ht="29">
+    <row r="262" spans="1:22" ht="28.8">
       <c r="C262" s="43" t="s">
         <v>420</v>
       </c>
@@ -11803,7 +11848,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="263" spans="1:22" ht="409.5">
+    <row r="263" spans="1:22" ht="409.6">
       <c r="A263" s="1" t="s">
         <v>338</v>
       </c>
@@ -11814,7 +11859,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="264" spans="1:22" ht="362.5">
+    <row r="264" spans="1:22" ht="360">
       <c r="A264" s="1" t="s">
         <v>422</v>
       </c>
@@ -11844,7 +11889,7 @@
       <c r="S266" s="5"/>
       <c r="U266" s="5"/>
     </row>
-    <row r="267" spans="1:22" ht="29">
+    <row r="267" spans="1:22" ht="28.8">
       <c r="A267" s="1" t="s">
         <v>425</v>
       </c>
@@ -11863,7 +11908,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="269" spans="1:22" ht="29">
+    <row r="269" spans="1:22" ht="28.8">
       <c r="A269" s="2" t="s">
         <v>429</v>
       </c>
@@ -11874,7 +11919,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="270" spans="1:22" ht="29">
+    <row r="270" spans="1:22" ht="28.8">
       <c r="A270" s="2" t="s">
         <v>431</v>
       </c>
@@ -11885,7 +11930,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="271" spans="1:22" ht="43.5">
+    <row r="271" spans="1:22" ht="28.8">
       <c r="A271" s="2" t="s">
         <v>434</v>
       </c>
@@ -11902,13 +11947,13 @@
       </c>
       <c r="C272" s="1"/>
     </row>
-    <row r="273" spans="1:3" ht="29">
+    <row r="273" spans="1:3" ht="28.8">
       <c r="A273" s="2"/>
       <c r="C273" s="44" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="58">
+    <row r="274" spans="1:3" ht="57.6">
       <c r="A274" s="44" t="s">
         <v>439</v>
       </c>
@@ -11925,7 +11970,7 @@
       </c>
       <c r="C275" s="44"/>
     </row>
-    <row r="276" spans="1:3" ht="32">
+    <row r="276" spans="1:3" ht="30">
       <c r="A276" s="2" t="s">
         <v>447</v>
       </c>
@@ -11936,7 +11981,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="64">
+    <row r="277" spans="1:3" ht="60">
       <c r="A277" s="2" t="s">
         <v>448</v>
       </c>
@@ -11944,7 +11989,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="48">
+    <row r="278" spans="1:3" ht="45">
       <c r="A278" s="2" t="s">
         <v>449</v>
       </c>
@@ -11952,7 +11997,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="29">
+    <row r="279" spans="1:3" ht="28.8">
       <c r="A279" s="2" t="s">
         <v>453</v>
       </c>
@@ -11969,7 +12014,7 @@
       <c r="A281" s="2"/>
       <c r="C281" s="44"/>
     </row>
-    <row r="282" spans="1:3" ht="304.5">
+    <row r="282" spans="1:3" ht="302.39999999999998">
       <c r="B282" s="2" t="s">
         <v>427</v>
       </c>
@@ -11977,13 +12022,13 @@
         <v>442</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="217.5">
+    <row r="283" spans="1:3" ht="216">
       <c r="C283" s="46" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -11997,46 +12042,46 @@
   </sheetPr>
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="85.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="85.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12088,40 +12133,40 @@
       <c r="U4" s="20"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" ht="130.5">
+    <row r="5" spans="1:22" ht="129.6">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="64" t="s">
         <v>493</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="58">
+    <row r="6" spans="1:22" ht="57.6">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="64" t="s">
         <v>495</v>
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="58">
+    <row r="7" spans="1:22" ht="57.6">
       <c r="A7" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="64" t="s">
         <v>496</v>
       </c>
       <c r="D7" s="2"/>
@@ -12131,52 +12176,61 @@
         <v>492</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="66"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="58">
+    <row r="9" spans="1:22" ht="57.6">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C9" s="66" t="s">
-        <v>499</v>
+        <v>502</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>498</v>
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="130.5">
+    <row r="10" spans="1:22" ht="129.6">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C10" s="66" t="s">
+        <v>503</v>
+      </c>
+      <c r="C10" s="64" t="s">
         <v>497</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="145">
+    <row r="11" spans="1:22" ht="129.6">
       <c r="A11" s="1" t="s">
         <v>491</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C11" s="66" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="C12" s="19"/>
+        <v>503</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>501</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="216">
+      <c r="A12" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" s="67" t="s">
+        <v>504</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>499</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="22" type="noConversion"/>
+  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -12193,42 +12247,42 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12315,7 +12369,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="232">
+    <row r="7" spans="1:22" ht="230.4">
       <c r="A7" s="1" t="s">
         <v>484</v>
       </c>
@@ -12325,7 +12379,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="409.5">
+    <row r="8" spans="1:22" ht="409.6">
       <c r="A8" s="60" t="s">
         <v>487</v>
       </c>
@@ -12357,42 +12411,42 @@
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12445,42 +12499,42 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12515,12 +12569,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="130.5">
+    <row r="5" spans="1:22" ht="129.6">
       <c r="C5" s="55" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="217.5">
+    <row r="6" spans="1:22" ht="216">
       <c r="A6" s="54" t="s">
         <v>470</v>
       </c>
@@ -12528,7 +12582,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="319">
+    <row r="7" spans="1:22" ht="316.8">
       <c r="A7" s="54" t="s">
         <v>471</v>
       </c>
@@ -12536,7 +12590,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="362.5">
+    <row r="8" spans="1:22" ht="360">
       <c r="A8" s="54" t="s">
         <v>474</v>
       </c>
@@ -12544,7 +12598,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="333.5">
+    <row r="9" spans="1:22" ht="331.2">
       <c r="A9" s="54" t="s">
         <v>476</v>
       </c>
@@ -12552,7 +12606,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="377">
+    <row r="10" spans="1:22" ht="374.4">
       <c r="A10" s="54" t="s">
         <v>475</v>
       </c>
@@ -12565,7 +12619,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="409.5">
+    <row r="12" spans="1:22" ht="409.6">
       <c r="B12" s="55" t="s">
         <v>478</v>
       </c>
@@ -12593,42 +12647,42 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12680,7 +12734,7 @@
       <c r="U4" s="20"/>
       <c r="V4" s="19"/>
     </row>
-    <row r="5" spans="1:22" ht="87">
+    <row r="5" spans="1:22" ht="86.4">
       <c r="C5" s="20" t="s">
         <v>202</v>
       </c>
@@ -12690,7 +12744,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="246.5">
+    <row r="7" spans="1:22" ht="244.8">
       <c r="C7" s="20" t="s">
         <v>204</v>
       </c>
@@ -12700,7 +12754,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="43.5">
+    <row r="9" spans="1:22" ht="43.2">
       <c r="B9" s="20" t="s">
         <v>209</v>
       </c>
@@ -12708,7 +12762,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="174">
+    <row r="10" spans="1:22" ht="172.8">
       <c r="B10" s="20" t="s">
         <v>207</v>
       </c>
@@ -12721,7 +12775,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="246.5">
+    <row r="12" spans="1:22" ht="244.8">
       <c r="C12" s="20" t="s">
         <v>210</v>
       </c>
@@ -12746,44 +12800,44 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12868,42 +12922,42 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.54296875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="71.1796875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.453125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.1796875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.08984375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.90625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.36328125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.81640625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.90625" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6328125" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.90625" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.81640625" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.81640625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.90625" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.1796875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="21"/>
-    <col min="21" max="21" width="67.81640625" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.36328125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.36328125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6328125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.453125" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.1796875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.81640625" style="19"/>
+    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="71.21875" style="20" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="21"/>
+    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="64"/>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12937,17 +12991,17 @@
         <v>459</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="409.5">
+    <row r="5" spans="1:22" ht="409.6">
       <c r="C5" s="48" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="333.5">
+    <row r="6" spans="1:22" ht="331.2">
       <c r="C6" s="48" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="275.5">
+    <row r="7" spans="1:22" ht="273.60000000000002">
       <c r="C7" s="48" t="s">
         <v>458</v>
       </c>
@@ -12957,7 +13011,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="409.5">
+    <row r="9" spans="1:22" ht="409.6">
       <c r="C9" s="48" t="s">
         <v>461</v>
       </c>

--- a/4 четверть_9_JavaScript_Vue.xlsx
+++ b/4 четверть_9_JavaScript_Vue.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexServHW\Desktop\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4E64927-27A1-458D-B0A7-3E2A02AD0E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45559D31-AAFB-4191-8C89-562D186D0B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="-18840" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2790" yWindow="-17325" windowWidth="27330" windowHeight="12000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Название 1-3" sheetId="12" r:id="rId1"/>
-    <sheet name="Vue Css" sheetId="17" r:id="rId2"/>
+    <sheet name="Vue Css" sheetId="21" r:id="rId2"/>
     <sheet name="URL to login after REMOTE auth" sheetId="20" r:id="rId3"/>
     <sheet name="ElComponent" sheetId="18" r:id="rId4"/>
     <sheet name="El-dialog" sheetId="19" r:id="rId5"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="511">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -7644,43 +7644,6 @@
     <t>Результат должен быть</t>
   </si>
   <si>
-    <t>Вариант 3</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;el-button
-                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                &gt;
-                &lt;/el-button&gt;</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">data() {
         return {
@@ -7716,21 +7679,191 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">                &lt;el-button
-                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :style="{backgroundColor: "#409EFF",}"</t>
+    <t>inline стили</t>
+  </si>
+  <si>
+    <t>несколько стилей</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;el-button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="{backgroundColor: "#409EFF", ...}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  &gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>несколько стилей с условиями</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;el-button </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:style="{backgroundColor: item.length === 0 ? "#409EFF" : "#FFF", ...}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>несколько стилей, комбинированных в объект</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;el-button</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :style="condformattingobj.colorformatting?.active ? activeStyleColor : {}"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &gt; &lt;/el-button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>классы</t>
+  </si>
+  <si>
+    <t>Подход 1</t>
+  </si>
+  <si>
+    <t>один class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button  v-bind:class=" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&gt; &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Подход 2</t>
+  </si>
+  <si>
+    <r>
+      <t>&lt;button  v-bind:class="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "&gt; &lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>несколько class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+         v-bind:class="
+        [
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null ,
+          colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null </t>
     </r>
     <r>
       <rPr>
@@ -7742,26 +7875,31 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-                &gt;
-                &lt;/el-button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                &lt;el-button
-                   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :style="{backgroundColor: item.length === 0 ? "#409EFF" : "#FFF",}"</t>
+         ]
+       "
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+         v-bind:class="
+        {
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
+          'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
+          'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
     </r>
     <r>
       <rPr>
@@ -7773,30 +7911,33 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-                &gt;
-                &lt;/el-button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      &lt;button 
-                              v-bind:class="
-                              {
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'btn-danger': colorEdit &amp;&amp; baseSettings.editUserCurrentSetting,
-                                'btn-default': !colorEdit || !baseSettings.editUserCurrentSetting, 
-                                'btn-primary': colorEdit &amp;&amp; !baseSettings.editUserCurrentSetting</t>
+         }
+       "
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Микс подход</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;button 
+        v-bind:class="[
+           </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'custom_class_1',
+            {'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}, 
+           colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null </t>
     </r>
     <r>
       <rPr>
@@ -7808,132 +7949,85 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-                              }
-                              "
-                      &lt;/button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      &lt;button 
-                              v-bind:class=" </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "
-                      &lt;/button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;template&gt;
-  &lt;button :class="buttonClass"&gt;Кнопка&lt;/button&gt;
+         ]"
+&lt;/button&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;template&gt;
+  &lt;button :class="</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>buttonClass</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"&gt;Кнопка&lt;/button&gt;
 &lt;/template&gt;
 &lt;script&gt;
 export default {
   computed: {
-    buttonClass() {
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    buttonClass() {
       return this.checkBtn(this.table.TableNameReal) 
         ? 'btn-primary' 
         : 'hwc-btn-unactive';
     }
-  }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  }
 }
 &lt;/script&gt;</t>
-  </si>
-  <si>
-    <t>Вариант 4</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                      &lt;button 
-                              v-bind:class="
-                              [
-                                </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">'custom_class_1',
-                                {'btn-danger': !colorEdit || !baseSettings.editUserCurrentSetting}, 
-                                colorEdit &amp;&amp; baseSettings.editUserCurrentSetting ? 'btn-danger' : null </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-                              ]
-                              "
-                      &lt;/button&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>когда 1 class</t>
-  </si>
-  <si>
-    <t>когда несколько class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">через computed </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="42">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -8353,12 +8447,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -8369,20 +8464,20 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8394,7 +8489,7 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -8403,63 +8498,54 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="12" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="14" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="35" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8467,7 +8553,7 @@
     <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="35" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8476,8 +8562,8 @@
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8485,23 +8571,20 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -8509,28 +8592,16 @@
     <xf numFmtId="49" fontId="6" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -8539,32 +8610,70 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="39" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="13" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{141A142D-D8A7-43F9-B8D2-54AA311FA1CB}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{C739D4B1-2A16-47B8-8914-B47AE649C078}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12028,7 +12137,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="23" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -12036,201 +12145,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF32088-FDD0-46A0-946F-1A7398394841}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A9F60E-4ADA-4D72-A128-02A784820C6B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V12"/>
+  <dimension ref="A1:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36" style="19" customWidth="1"/>
-    <col min="2" max="2" width="50.5546875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="85.21875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="56.44140625" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="18" customWidth="1"/>
-    <col min="6" max="6" width="43.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.109375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="67.88671875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="64.33203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="39.21875" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="48.88671875" style="19" customWidth="1"/>
-    <col min="13" max="13" width="72.6640625" style="19" customWidth="1"/>
-    <col min="14" max="14" width="43.88671875" style="19" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="56.77734375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="46.77734375" style="20" customWidth="1"/>
-    <col min="18" max="18" width="62.88671875" style="20" customWidth="1"/>
-    <col min="19" max="19" width="49.21875" style="19" customWidth="1"/>
-    <col min="20" max="20" width="8.77734375" style="21"/>
-    <col min="21" max="21" width="67.77734375" style="20" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="19" customWidth="1"/>
-    <col min="23" max="24" width="59.33203125" style="19" customWidth="1"/>
-    <col min="25" max="25" width="59.6640625" style="19" customWidth="1"/>
-    <col min="26" max="26" width="99.44140625" style="19" customWidth="1"/>
-    <col min="27" max="27" width="41.21875" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="8.77734375" style="19"/>
+    <col min="1" max="1" width="36" style="66" customWidth="1"/>
+    <col min="2" max="2" width="50.5546875" style="67" customWidth="1"/>
+    <col min="3" max="3" width="100.44140625" style="67" customWidth="1"/>
+    <col min="4" max="4" width="56.44140625" style="66" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="65" customWidth="1"/>
+    <col min="6" max="6" width="43.21875" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.109375" style="67" customWidth="1"/>
+    <col min="8" max="8" width="67.88671875" style="66" customWidth="1"/>
+    <col min="9" max="9" width="64.33203125" style="66" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" style="65" customWidth="1"/>
+    <col min="11" max="11" width="39.21875" style="66" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="48.88671875" style="66" customWidth="1"/>
+    <col min="13" max="13" width="72.6640625" style="66" customWidth="1"/>
+    <col min="14" max="14" width="43.88671875" style="66" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" style="65" customWidth="1"/>
+    <col min="16" max="16" width="56.77734375" style="67" customWidth="1"/>
+    <col min="17" max="17" width="46.77734375" style="67" customWidth="1"/>
+    <col min="18" max="18" width="62.88671875" style="67" customWidth="1"/>
+    <col min="19" max="19" width="49.21875" style="66" customWidth="1"/>
+    <col min="20" max="20" width="8.77734375" style="68"/>
+    <col min="21" max="21" width="67.77734375" style="67" customWidth="1"/>
+    <col min="22" max="22" width="68.33203125" style="66" customWidth="1"/>
+    <col min="23" max="24" width="59.33203125" style="66" customWidth="1"/>
+    <col min="25" max="25" width="59.6640625" style="66" customWidth="1"/>
+    <col min="26" max="26" width="99.44140625" style="66" customWidth="1"/>
+    <col min="27" max="27" width="41.21875" style="66" customWidth="1"/>
+    <col min="28" max="16384" width="8.77734375" style="66"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="U2" s="23"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="P2" s="70"/>
+      <c r="Q2" s="70"/>
+      <c r="R2" s="70"/>
+      <c r="S2" s="70"/>
+      <c r="U2" s="70"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="71" t="s">
         <v>463</v>
       </c>
-      <c r="P3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="20"/>
-    </row>
-    <row r="4" spans="1:22" s="18" customFormat="1">
-      <c r="A4" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="19"/>
-    </row>
-    <row r="5" spans="1:22" ht="129.6">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="P3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="67"/>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="72" t="s">
+        <v>492</v>
+      </c>
+      <c r="P4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="64" t="s">
         <v>493</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" s="73" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="57.6">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="64" t="s">
         <v>495</v>
       </c>
+      <c r="C6" s="73" t="s">
+        <v>496</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="57.6">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:22" ht="129.6">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C7" s="73" t="s">
+        <v>498</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="64" t="s">
-        <v>496</v>
-      </c>
-      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="52" t="s">
-        <v>492</v>
+      <c r="A8" s="72" t="s">
+        <v>499</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="64"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:22" ht="57.6">
+    <row r="9" spans="1:22">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="C9" s="68" t="s">
-        <v>498</v>
-      </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:22" ht="129.6">
+    <row r="10" spans="1:22">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>503</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C10" s="73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" ht="115.2">
+      <c r="A11" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>506</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" ht="129.6">
+      <c r="A12" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>497</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="129.6">
-      <c r="A11" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C11" s="68" t="s">
-        <v>501</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="216">
-      <c r="A12" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="B12" s="67" t="s">
-        <v>504</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>499</v>
+      <c r="B12" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>507</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="100.8">
+      <c r="A13" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="73" t="s">
+        <v>509</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="216">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>510</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
-  <phoneticPr fontId="23" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -12279,10 +12390,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12304,7 +12415,7 @@
       <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="55" t="s">
         <v>482</v>
       </c>
       <c r="P3" s="19"/>
@@ -12312,11 +12423,11 @@
       <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:22" s="18" customFormat="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>26</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="63"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="19"/>
       <c r="F4" s="19"/>
       <c r="G4" s="20"/>
@@ -12335,11 +12446,11 @@
       <c r="V4" s="19"/>
     </row>
     <row r="5" spans="1:22" s="18" customFormat="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="60" t="s">
         <v>490</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="61" t="s">
         <v>489</v>
       </c>
       <c r="D5" s="19"/>
@@ -12364,7 +12475,7 @@
         <v>485</v>
       </c>
       <c r="B6" s="2"/>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="57" t="s">
         <v>486</v>
       </c>
       <c r="D6" s="2"/>
@@ -12374,16 +12485,16 @@
         <v>484</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="57" t="s">
         <v>483</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:22" ht="409.6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="58" t="s">
         <v>487</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="59" t="s">
         <v>488</v>
       </c>
     </row>
@@ -12443,10 +12554,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12468,10 +12579,10 @@
       <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="51" t="s">
         <v>465</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>464</v>
       </c>
       <c r="P3" s="19"/>
@@ -12531,10 +12642,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12556,74 +12667,74 @@
       <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="51" t="s">
         <v>481</v>
       </c>
-      <c r="D3" s="54"/>
+      <c r="D3" s="52"/>
       <c r="P3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="20"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="129.6">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="53" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="216">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="52" t="s">
         <v>470</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="53" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="316.8">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="52" t="s">
         <v>471</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="53" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="360">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="52" t="s">
         <v>474</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="53" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="331.2">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="52" t="s">
         <v>476</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="53" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="374.4">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="53" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="54" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="409.6">
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="53" t="s">
         <v>477</v>
       </c>
     </row>
@@ -12679,10 +12790,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12832,12 +12943,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
@@ -12954,10 +13065,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="22"/>
